--- a/output/article/Supp-mat_model_param_stats_10000.xlsx
+++ b/output/article/Supp-mat_model_param_stats_10000.xlsx
@@ -3647,22 +3647,22 @@
         <v>9</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0940261552505531</v>
+        <v>0.274523181833338</v>
       </c>
       <c r="C116" t="n">
-        <v>0.547604826265832</v>
+        <v>0.560608794174582</v>
       </c>
       <c r="D116" t="n">
-        <v>1.23860589779153</v>
+        <v>1.2502353062281</v>
       </c>
       <c r="E116" t="n">
-        <v>1.14699458782482</v>
+        <v>1.15657060820695</v>
       </c>
       <c r="F116" t="n">
-        <v>3.02137894780421</v>
+        <v>2.98398972567428</v>
       </c>
       <c r="G116" t="n">
-        <v>3.88233787016573</v>
+        <v>3.91206246467633</v>
       </c>
       <c r="H116" t="s">
         <v>50</v>
@@ -3676,22 +3676,22 @@
         <v>9</v>
       </c>
       <c r="B117" t="n">
-        <v>7.1926799605129</v>
+        <v>7.20552972134788</v>
       </c>
       <c r="C117" t="n">
-        <v>9.57514203594767</v>
+        <v>9.62419059533327</v>
       </c>
       <c r="D117" t="n">
-        <v>22.221777944311</v>
+        <v>22.250076773176</v>
       </c>
       <c r="E117" t="n">
-        <v>21.8878666629371</v>
+        <v>21.9217641634765</v>
       </c>
       <c r="F117" t="n">
-        <v>37.4658743149223</v>
+        <v>37.6029690618133</v>
       </c>
       <c r="G117" t="n">
-        <v>40.4653987714428</v>
+        <v>41.1190140607002</v>
       </c>
       <c r="H117" t="s">
         <v>50</v>
@@ -3705,22 +3705,22 @@
         <v>9</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123253795767944</v>
+        <v>0.120348863826306</v>
       </c>
       <c r="C118" t="n">
-        <v>0.182952373417064</v>
+        <v>0.184636307433399</v>
       </c>
       <c r="D118" t="n">
-        <v>0.949436829127015</v>
+        <v>0.950355505653891</v>
       </c>
       <c r="E118" t="n">
-        <v>0.769846599733168</v>
+        <v>0.772161176644989</v>
       </c>
       <c r="F118" t="n">
-        <v>2.28468827389723</v>
+        <v>2.28768096205785</v>
       </c>
       <c r="G118" t="n">
-        <v>2.44783587127608</v>
+        <v>2.44536843588409</v>
       </c>
       <c r="H118" t="s">
         <v>50</v>
@@ -3734,22 +3734,22 @@
         <v>9</v>
       </c>
       <c r="B119" t="n">
-        <v>20750.8638234628</v>
+        <v>21324.0452720354</v>
       </c>
       <c r="C119" t="n">
-        <v>22559.2809139988</v>
+        <v>22545.2018576302</v>
       </c>
       <c r="D119" t="n">
-        <v>27251.9019564448</v>
+        <v>27252.1413322766</v>
       </c>
       <c r="E119" t="n">
-        <v>27293.2954241573</v>
+        <v>27276.9625969756</v>
       </c>
       <c r="F119" t="n">
-        <v>32555.0062949923</v>
+        <v>32548.7525035775</v>
       </c>
       <c r="G119" t="n">
-        <v>35184.7972570367</v>
+        <v>35042.1116600518</v>
       </c>
       <c r="H119" t="s">
         <v>50</v>
@@ -3763,22 +3763,22 @@
         <v>9</v>
       </c>
       <c r="B120" t="n">
-        <v>2354.05056073431</v>
+        <v>2350.59659510459</v>
       </c>
       <c r="C120" t="n">
-        <v>2552.70484685369</v>
+        <v>2553.40293576474</v>
       </c>
       <c r="D120" t="n">
-        <v>3457.16578654411</v>
+        <v>3457.16361511238</v>
       </c>
       <c r="E120" t="n">
-        <v>3410.15822725716</v>
+        <v>3410.61564857279</v>
       </c>
       <c r="F120" t="n">
-        <v>4833.41462561943</v>
+        <v>4827.55297974622</v>
       </c>
       <c r="G120" t="n">
-        <v>5201.495341915</v>
+        <v>5226.02230295847</v>
       </c>
       <c r="H120" t="s">
         <v>50</v>
@@ -3792,22 +3792,22 @@
         <v>9</v>
       </c>
       <c r="B121" t="n">
-        <v>0.221347937998011</v>
+        <v>0.237749030152813</v>
       </c>
       <c r="C121" t="n">
-        <v>0.303245417516872</v>
+        <v>0.302533115070659</v>
       </c>
       <c r="D121" t="n">
-        <v>0.824207906238044</v>
+        <v>0.825514400907987</v>
       </c>
       <c r="E121" t="n">
-        <v>0.708349408314807</v>
+        <v>0.71128964050419</v>
       </c>
       <c r="F121" t="n">
-        <v>1.87360214773518</v>
+        <v>1.85982905188147</v>
       </c>
       <c r="G121" t="n">
-        <v>2.6530020807068</v>
+        <v>2.70263532966481</v>
       </c>
       <c r="H121" t="s">
         <v>50</v>
@@ -3821,22 +3821,22 @@
         <v>9</v>
       </c>
       <c r="B122" t="n">
-        <v>5.91806905344769</v>
+        <v>6.12601302151316</v>
       </c>
       <c r="C122" t="n">
-        <v>7.57240157791958</v>
+        <v>7.5881289511566</v>
       </c>
       <c r="D122" t="n">
-        <v>16.6464867666048</v>
+        <v>16.6711393860542</v>
       </c>
       <c r="E122" t="n">
-        <v>15.8678664237467</v>
+        <v>15.913572860658</v>
       </c>
       <c r="F122" t="n">
-        <v>30.7561375328461</v>
+        <v>30.7773494695365</v>
       </c>
       <c r="G122" t="n">
-        <v>37.8182539426632</v>
+        <v>38.2280376979562</v>
       </c>
       <c r="H122" t="s">
         <v>50</v>
@@ -3850,19 +3850,19 @@
         <v>11</v>
       </c>
       <c r="B123" t="n">
-        <v>-2.76453744397465</v>
+        <v>1.04517639947031</v>
       </c>
       <c r="C123" t="n">
-        <v>1.12388370172996</v>
+        <v>1.78463716970137</v>
       </c>
       <c r="D123" t="n">
-        <v>5.22359106849543</v>
+        <v>5.34971673144608</v>
       </c>
       <c r="E123" t="n">
-        <v>5.22526317490799</v>
+        <v>5.28802716733992</v>
       </c>
       <c r="F123" t="n">
-        <v>9.26980107913294</v>
+        <v>9.28987856536946</v>
       </c>
       <c r="G123" t="n">
         <v>13.1828405886941</v>
@@ -3879,19 +3879,19 @@
         <v>11</v>
       </c>
       <c r="B124" t="n">
-        <v>-9.41725181096389</v>
+        <v>3.36737471555364</v>
       </c>
       <c r="C124" t="n">
-        <v>3.92821841011628</v>
+        <v>5.35597441879715</v>
       </c>
       <c r="D124" t="n">
-        <v>16.831975014281</v>
+        <v>17.1388873194762</v>
       </c>
       <c r="E124" t="n">
-        <v>16.8190592480552</v>
+        <v>16.9826472167997</v>
       </c>
       <c r="F124" t="n">
-        <v>30.0579663124979</v>
+        <v>30.0912593848722</v>
       </c>
       <c r="G124" t="n">
         <v>41.2612663044894</v>
@@ -3908,19 +3908,19 @@
         <v>11</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.26707339122719</v>
+        <v>0.09230043356453</v>
       </c>
       <c r="C125" t="n">
-        <v>0.103278433121061</v>
+        <v>0.158031213585578</v>
       </c>
       <c r="D125" t="n">
-        <v>0.46100701343808</v>
+        <v>0.470970433901074</v>
       </c>
       <c r="E125" t="n">
-        <v>0.460214119747406</v>
+        <v>0.465663489038031</v>
       </c>
       <c r="F125" t="n">
-        <v>0.81837453865066</v>
+        <v>0.823438359290735</v>
       </c>
       <c r="G125" t="n">
         <v>1.13689095140221</v>
@@ -3937,16 +3937,16 @@
         <v>11</v>
       </c>
       <c r="B126" t="n">
-        <v>4827.86768733919</v>
+        <v>6625.96392032727</v>
       </c>
       <c r="C126" t="n">
-        <v>15193.4429370195</v>
+        <v>15194.5148517968</v>
       </c>
       <c r="D126" t="n">
-        <v>24803.5589129044</v>
+        <v>24806.1550411286</v>
       </c>
       <c r="E126" t="n">
-        <v>24832.9513857381</v>
+        <v>24833.3129664428</v>
       </c>
       <c r="F126" t="n">
         <v>34516.1871607546</v>
@@ -3972,7 +3972,7 @@
         <v>1467.46116303127</v>
       </c>
       <c r="D127" t="n">
-        <v>2436.28490846491</v>
+        <v>2436.26135840489</v>
       </c>
       <c r="E127" t="n">
         <v>2437.64337729596</v>
@@ -3995,19 +3995,19 @@
         <v>11</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.340769776858218</v>
+        <v>0.140219996420839</v>
       </c>
       <c r="C128" t="n">
-        <v>0.15428582664241</v>
+        <v>0.237282424105837</v>
       </c>
       <c r="D128" t="n">
-        <v>0.697253454253057</v>
+        <v>0.711422920162409</v>
       </c>
       <c r="E128" t="n">
-        <v>0.697183992993902</v>
+        <v>0.703999549262424</v>
       </c>
       <c r="F128" t="n">
-        <v>1.24488740885614</v>
+        <v>1.24579679300077</v>
       </c>
       <c r="G128" t="n">
         <v>1.77148804432166</v>
@@ -4024,19 +4024,19 @@
         <v>11</v>
       </c>
       <c r="B129" t="n">
-        <v>-9.13225952544962</v>
+        <v>2.66496466895213</v>
       </c>
       <c r="C129" t="n">
-        <v>2.93629175598935</v>
+        <v>4.27354255939319</v>
       </c>
       <c r="D129" t="n">
-        <v>13.2294918383278</v>
+        <v>13.4968595198813</v>
       </c>
       <c r="E129" t="n">
-        <v>13.2141649416223</v>
+        <v>13.3066907642905</v>
       </c>
       <c r="F129" t="n">
-        <v>23.5438499011869</v>
+        <v>23.605408811057</v>
       </c>
       <c r="G129" t="n">
         <v>35.0854144850058</v>
@@ -4053,22 +4053,22 @@
         <v>12</v>
       </c>
       <c r="B130" t="n">
-        <v>0.052704270063487</v>
+        <v>0.268797752293334</v>
       </c>
       <c r="C130" t="n">
-        <v>0.545310236022041</v>
+        <v>0.561750672985421</v>
       </c>
       <c r="D130" t="n">
-        <v>1.28552695199972</v>
+        <v>1.29813951829478</v>
       </c>
       <c r="E130" t="n">
-        <v>1.18967353095177</v>
+        <v>1.1980286733171</v>
       </c>
       <c r="F130" t="n">
-        <v>3.18173034753185</v>
+        <v>3.14776384681929</v>
       </c>
       <c r="G130" t="n">
-        <v>4.12153352933523</v>
+        <v>4.10947296431504</v>
       </c>
       <c r="H130" t="s">
         <v>50</v>
@@ -4082,22 +4082,22 @@
         <v>12</v>
       </c>
       <c r="B131" t="n">
-        <v>6.76714900377655</v>
+        <v>6.95701731287522</v>
       </c>
       <c r="C131" t="n">
-        <v>9.33355188754417</v>
+        <v>9.31400081500524</v>
       </c>
       <c r="D131" t="n">
-        <v>22.7972254373842</v>
+        <v>22.8279166679037</v>
       </c>
       <c r="E131" t="n">
-        <v>22.4342092591727</v>
+        <v>22.4388813843831</v>
       </c>
       <c r="F131" t="n">
-        <v>39.1012291599059</v>
+        <v>39.3135409426997</v>
       </c>
       <c r="G131" t="n">
-        <v>42.5723609438732</v>
+        <v>42.663528089088</v>
       </c>
       <c r="H131" t="s">
         <v>50</v>
@@ -4111,22 +4111,22 @@
         <v>12</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0755289017050904</v>
+        <v>0.111652820122319</v>
       </c>
       <c r="C132" t="n">
-        <v>0.148696128649719</v>
+        <v>0.149382188451473</v>
       </c>
       <c r="D132" t="n">
-        <v>0.962270724613807</v>
+        <v>0.963267066660106</v>
       </c>
       <c r="E132" t="n">
-        <v>0.771908080259215</v>
+        <v>0.772624291622583</v>
       </c>
       <c r="F132" t="n">
-        <v>2.39437331883621</v>
+        <v>2.39579685375098</v>
       </c>
       <c r="G132" t="n">
-        <v>2.51026138028304</v>
+        <v>2.50990105795386</v>
       </c>
       <c r="H132" t="s">
         <v>50</v>
@@ -4140,22 +4140,22 @@
         <v>12</v>
       </c>
       <c r="B133" t="n">
-        <v>20311.1764961306</v>
+        <v>20877.5986455962</v>
       </c>
       <c r="C133" t="n">
-        <v>22289.5103485717</v>
+        <v>22280.9084662076</v>
       </c>
       <c r="D133" t="n">
-        <v>27302.2755956712</v>
+        <v>27302.5352084936</v>
       </c>
       <c r="E133" t="n">
-        <v>27341.3559282846</v>
+        <v>27345.7471505906</v>
       </c>
       <c r="F133" t="n">
-        <v>32991.9692610729</v>
+        <v>32978.9785481515</v>
       </c>
       <c r="G133" t="n">
-        <v>35811.1412559794</v>
+        <v>35579.540840324</v>
       </c>
       <c r="H133" t="s">
         <v>50</v>
@@ -4169,22 +4169,22 @@
         <v>12</v>
       </c>
       <c r="B134" t="n">
-        <v>2338.11149893643</v>
+        <v>2331.74407385711</v>
       </c>
       <c r="C134" t="n">
-        <v>2510.24689548287</v>
+        <v>2505.77376808405</v>
       </c>
       <c r="D134" t="n">
-        <v>3473.40671811974</v>
+        <v>3473.40436311374</v>
       </c>
       <c r="E134" t="n">
-        <v>3423.71112360459</v>
+        <v>3424.39878947397</v>
       </c>
       <c r="F134" t="n">
-        <v>4948.29477174438</v>
+        <v>4932.0769347319</v>
       </c>
       <c r="G134" t="n">
-        <v>5330.00223304346</v>
+        <v>5351.6108836413</v>
       </c>
       <c r="H134" t="s">
         <v>50</v>
@@ -4198,22 +4198,22 @@
         <v>12</v>
       </c>
       <c r="B135" t="n">
-        <v>0.193486174142724</v>
+        <v>0.218813410587911</v>
       </c>
       <c r="C135" t="n">
-        <v>0.283082512828171</v>
+        <v>0.281782003631205</v>
       </c>
       <c r="D135" t="n">
-        <v>0.839870029923003</v>
+        <v>0.841286976513938</v>
       </c>
       <c r="E135" t="n">
-        <v>0.716895568997392</v>
+        <v>0.719764323824909</v>
       </c>
       <c r="F135" t="n">
-        <v>1.95824863985354</v>
+        <v>1.94398094040707</v>
       </c>
       <c r="G135" t="n">
-        <v>2.79870833740913</v>
+        <v>2.85157848137066</v>
       </c>
       <c r="H135" t="s">
         <v>50</v>
@@ -4227,22 +4227,22 @@
         <v>12</v>
       </c>
       <c r="B136" t="n">
-        <v>5.49564786221272</v>
+        <v>5.9724627155298</v>
       </c>
       <c r="C136" t="n">
-        <v>7.37104227473176</v>
+        <v>7.38681330271659</v>
       </c>
       <c r="D136" t="n">
-        <v>17.0707951886257</v>
+        <v>17.097531956781</v>
       </c>
       <c r="E136" t="n">
-        <v>16.2577302636379</v>
+        <v>16.2906859469876</v>
       </c>
       <c r="F136" t="n">
-        <v>32.1570031554169</v>
+        <v>32.1719616654319</v>
       </c>
       <c r="G136" t="n">
-        <v>39.6890108424423</v>
+        <v>40.0268276684617</v>
       </c>
       <c r="H136" t="s">
         <v>50</v>
@@ -4256,19 +4256,19 @@
         <v>13</v>
       </c>
       <c r="B137" t="n">
-        <v>-2.76453744397465</v>
+        <v>1.04517639947031</v>
       </c>
       <c r="C137" t="n">
-        <v>1.12388370172996</v>
+        <v>1.78463716970137</v>
       </c>
       <c r="D137" t="n">
-        <v>5.22359106849543</v>
+        <v>5.34971673144608</v>
       </c>
       <c r="E137" t="n">
-        <v>5.22526317490799</v>
+        <v>5.28802716733992</v>
       </c>
       <c r="F137" t="n">
-        <v>9.26980107913294</v>
+        <v>9.28987856536946</v>
       </c>
       <c r="G137" t="n">
         <v>13.1828405886941</v>
@@ -4285,19 +4285,19 @@
         <v>13</v>
       </c>
       <c r="B138" t="n">
-        <v>-9.41725181096389</v>
+        <v>3.36737471555364</v>
       </c>
       <c r="C138" t="n">
-        <v>3.92821841011628</v>
+        <v>5.35597441879715</v>
       </c>
       <c r="D138" t="n">
-        <v>16.831975014281</v>
+        <v>17.1388873194762</v>
       </c>
       <c r="E138" t="n">
-        <v>16.8190592480552</v>
+        <v>16.9826472167997</v>
       </c>
       <c r="F138" t="n">
-        <v>30.0579663124979</v>
+        <v>30.0912593848722</v>
       </c>
       <c r="G138" t="n">
         <v>41.2612663044894</v>
@@ -4314,19 +4314,19 @@
         <v>13</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.26707339122719</v>
+        <v>0.09230043356453</v>
       </c>
       <c r="C139" t="n">
-        <v>0.103278433121061</v>
+        <v>0.158031213585578</v>
       </c>
       <c r="D139" t="n">
-        <v>0.46100701343808</v>
+        <v>0.470970433901074</v>
       </c>
       <c r="E139" t="n">
-        <v>0.460214119747406</v>
+        <v>0.465663489038031</v>
       </c>
       <c r="F139" t="n">
-        <v>0.81837453865066</v>
+        <v>0.823438359290735</v>
       </c>
       <c r="G139" t="n">
         <v>1.13689095140221</v>
@@ -4343,16 +4343,16 @@
         <v>13</v>
       </c>
       <c r="B140" t="n">
-        <v>4827.86768733919</v>
+        <v>6625.96392032727</v>
       </c>
       <c r="C140" t="n">
-        <v>15193.4429370195</v>
+        <v>15194.5148517968</v>
       </c>
       <c r="D140" t="n">
-        <v>24803.5589129044</v>
+        <v>24806.1550411286</v>
       </c>
       <c r="E140" t="n">
-        <v>24832.9513857381</v>
+        <v>24833.3129664428</v>
       </c>
       <c r="F140" t="n">
         <v>34516.1871607546</v>
@@ -4378,7 +4378,7 @@
         <v>1467.46116303127</v>
       </c>
       <c r="D141" t="n">
-        <v>2436.28490846491</v>
+        <v>2436.26135840489</v>
       </c>
       <c r="E141" t="n">
         <v>2437.64337729596</v>
@@ -4401,19 +4401,19 @@
         <v>13</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.340769776858218</v>
+        <v>0.140219996420839</v>
       </c>
       <c r="C142" t="n">
-        <v>0.15428582664241</v>
+        <v>0.237282424105837</v>
       </c>
       <c r="D142" t="n">
-        <v>0.697253454253057</v>
+        <v>0.711422920162409</v>
       </c>
       <c r="E142" t="n">
-        <v>0.697183992993902</v>
+        <v>0.703999549262424</v>
       </c>
       <c r="F142" t="n">
-        <v>1.24488740885614</v>
+        <v>1.24579679300077</v>
       </c>
       <c r="G142" t="n">
         <v>1.77148804432166</v>
@@ -4430,19 +4430,19 @@
         <v>13</v>
       </c>
       <c r="B143" t="n">
-        <v>-9.13225952544962</v>
+        <v>2.66496466895213</v>
       </c>
       <c r="C143" t="n">
-        <v>2.93629175598935</v>
+        <v>4.27354255939319</v>
       </c>
       <c r="D143" t="n">
-        <v>13.2294918383278</v>
+        <v>13.4968595198813</v>
       </c>
       <c r="E143" t="n">
-        <v>13.2141649416223</v>
+        <v>13.3066907642905</v>
       </c>
       <c r="F143" t="n">
-        <v>23.5438499011869</v>
+        <v>23.605408811057</v>
       </c>
       <c r="G143" t="n">
         <v>35.0854144850058</v>
@@ -4459,19 +4459,19 @@
         <v>14</v>
       </c>
       <c r="B144" t="n">
-        <v>-2.76453744397465</v>
+        <v>1.04517639947031</v>
       </c>
       <c r="C144" t="n">
-        <v>1.12388370172996</v>
+        <v>1.78463716970137</v>
       </c>
       <c r="D144" t="n">
-        <v>5.22359106849543</v>
+        <v>5.34971673144608</v>
       </c>
       <c r="E144" t="n">
-        <v>5.22526317490799</v>
+        <v>5.28802716733992</v>
       </c>
       <c r="F144" t="n">
-        <v>9.26980107913288</v>
+        <v>9.28987856536946</v>
       </c>
       <c r="G144" t="n">
         <v>13.1828405886941</v>
@@ -4488,19 +4488,19 @@
         <v>14</v>
       </c>
       <c r="B145" t="n">
-        <v>-9.41725181096389</v>
+        <v>3.36737471555364</v>
       </c>
       <c r="C145" t="n">
-        <v>3.92821841011628</v>
+        <v>5.35597441879715</v>
       </c>
       <c r="D145" t="n">
-        <v>16.831975014281</v>
+        <v>17.1388873194762</v>
       </c>
       <c r="E145" t="n">
-        <v>16.8190592480552</v>
+        <v>16.9826472167997</v>
       </c>
       <c r="F145" t="n">
-        <v>30.0579663124978</v>
+        <v>30.091259384872</v>
       </c>
       <c r="G145" t="n">
         <v>41.2612663044894</v>
@@ -4517,19 +4517,19 @@
         <v>14</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.26707339122719</v>
+        <v>0.09230043356453</v>
       </c>
       <c r="C146" t="n">
-        <v>0.103278433121061</v>
+        <v>0.158031213585578</v>
       </c>
       <c r="D146" t="n">
-        <v>0.46100701343808</v>
+        <v>0.470970433901074</v>
       </c>
       <c r="E146" t="n">
-        <v>0.460214119747406</v>
+        <v>0.465663489038031</v>
       </c>
       <c r="F146" t="n">
-        <v>0.818374538650659</v>
+        <v>0.823438359290733</v>
       </c>
       <c r="G146" t="n">
         <v>1.13689095140221</v>
@@ -4546,16 +4546,16 @@
         <v>14</v>
       </c>
       <c r="B147" t="n">
-        <v>4827.86768733919</v>
+        <v>6625.96392032727</v>
       </c>
       <c r="C147" t="n">
-        <v>15193.4429370195</v>
+        <v>15194.5148517968</v>
       </c>
       <c r="D147" t="n">
-        <v>24803.5589129044</v>
+        <v>24806.1550411286</v>
       </c>
       <c r="E147" t="n">
-        <v>24832.9513857381</v>
+        <v>24833.3129664428</v>
       </c>
       <c r="F147" t="n">
         <v>34516.1871607544</v>
@@ -4581,7 +4581,7 @@
         <v>1467.46116303127</v>
       </c>
       <c r="D148" t="n">
-        <v>2436.28490846491</v>
+        <v>2436.26135840489</v>
       </c>
       <c r="E148" t="n">
         <v>2437.64337729596</v>
@@ -4604,19 +4604,19 @@
         <v>14</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.340769776858218</v>
+        <v>0.140219996420839</v>
       </c>
       <c r="C149" t="n">
-        <v>0.15428582664241</v>
+        <v>0.237282424105837</v>
       </c>
       <c r="D149" t="n">
-        <v>0.697253454253057</v>
+        <v>0.711422920162409</v>
       </c>
       <c r="E149" t="n">
-        <v>0.697183992993902</v>
+        <v>0.703999549262424</v>
       </c>
       <c r="F149" t="n">
-        <v>1.24488740885614</v>
+        <v>1.24579679300077</v>
       </c>
       <c r="G149" t="n">
         <v>1.77148804432166</v>
@@ -4633,19 +4633,19 @@
         <v>14</v>
       </c>
       <c r="B150" t="n">
-        <v>-9.13225952544962</v>
+        <v>2.66496466895213</v>
       </c>
       <c r="C150" t="n">
-        <v>2.93629175598935</v>
+        <v>4.27354255939319</v>
       </c>
       <c r="D150" t="n">
-        <v>13.2294918383278</v>
+        <v>13.4968595198813</v>
       </c>
       <c r="E150" t="n">
-        <v>13.2141649416223</v>
+        <v>13.3066907642905</v>
       </c>
       <c r="F150" t="n">
-        <v>23.5438499011869</v>
+        <v>23.6054088110568</v>
       </c>
       <c r="G150" t="n">
         <v>35.0854144850058</v>
@@ -7707,22 +7707,22 @@
         <v>30</v>
       </c>
       <c r="B256" t="n">
-        <v>-1.02161694021727</v>
+        <v>0.661294584768788</v>
       </c>
       <c r="C256" t="n">
-        <v>0.965288830144777</v>
+        <v>1.24578630398426</v>
       </c>
       <c r="D256" t="n">
-        <v>3.03577767044226</v>
+        <v>3.09884050191758</v>
       </c>
       <c r="E256" t="n">
-        <v>3.0202730735753</v>
+        <v>3.06680180720807</v>
       </c>
       <c r="F256" t="n">
-        <v>5.1646646502578</v>
+        <v>5.17157275056402</v>
       </c>
       <c r="G256" t="n">
-        <v>7.47824913330672</v>
+        <v>7.28069370051485</v>
       </c>
       <c r="H256" t="s">
         <v>50</v>
@@ -7736,22 +7736,22 @@
         <v>30</v>
       </c>
       <c r="B257" t="n">
-        <v>2.20106157567322</v>
+        <v>6.00931554714068</v>
       </c>
       <c r="C257" t="n">
-        <v>10.0042606118601</v>
+        <v>10.2693380184521</v>
       </c>
       <c r="D257" t="n">
-        <v>20.1460030271161</v>
+        <v>20.2994591797137</v>
       </c>
       <c r="E257" t="n">
-        <v>19.9248469736855</v>
+        <v>20.0708454211134</v>
       </c>
       <c r="F257" t="n">
-        <v>31.2276586553573</v>
+        <v>31.3134906779215</v>
       </c>
       <c r="G257" t="n">
-        <v>38.6818774639742</v>
+        <v>39.0395609545416</v>
       </c>
       <c r="H257" t="s">
         <v>50</v>
@@ -7765,22 +7765,22 @@
         <v>30</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.0767387840425898</v>
+        <v>0.103880808043551</v>
       </c>
       <c r="C258" t="n">
-        <v>0.227480811832397</v>
+        <v>0.233975867754552</v>
       </c>
       <c r="D258" t="n">
-        <v>0.739486852980151</v>
+        <v>0.744468563211647</v>
       </c>
       <c r="E258" t="n">
-        <v>0.642150780422327</v>
+        <v>0.649980652770471</v>
       </c>
       <c r="F258" t="n">
-        <v>1.54772257808114</v>
+        <v>1.54876009807542</v>
       </c>
       <c r="G258" t="n">
-        <v>1.79356748320543</v>
+        <v>1.79176587155952</v>
       </c>
       <c r="H258" t="s">
         <v>50</v>
@@ -7794,22 +7794,22 @@
         <v>30</v>
       </c>
       <c r="B259" t="n">
-        <v>13429.7059144456</v>
+        <v>16179.4018774571</v>
       </c>
       <c r="C259" t="n">
-        <v>20599.8637242189</v>
+        <v>20527.5443689043</v>
       </c>
       <c r="D259" t="n">
-        <v>26191.7348477748</v>
+        <v>26193.0329118869</v>
       </c>
       <c r="E259" t="n">
-        <v>26169.9989052891</v>
+        <v>26152.2151552392</v>
       </c>
       <c r="F259" t="n">
-        <v>31922.9671417664</v>
+        <v>31971.6836737822</v>
       </c>
       <c r="G259" t="n">
-        <v>36570.5694026084</v>
+        <v>37472.459400077</v>
       </c>
       <c r="H259" t="s">
         <v>50</v>
@@ -7823,22 +7823,22 @@
         <v>30</v>
       </c>
       <c r="B260" t="n">
-        <v>1771.29161826577</v>
+        <v>1632.20503113632</v>
       </c>
       <c r="C260" t="n">
-        <v>2262.77360642687</v>
+        <v>2272.38302690055</v>
       </c>
       <c r="D260" t="n">
-        <v>3012.46369160648</v>
+        <v>3012.45191657647</v>
       </c>
       <c r="E260" t="n">
-        <v>2992.81418646072</v>
+        <v>2988.7673872097</v>
       </c>
       <c r="F260" t="n">
-        <v>3897.87962446438</v>
+        <v>3888.86500545053</v>
       </c>
       <c r="G260" t="n">
-        <v>4691.79366602643</v>
+        <v>4589.83746980317</v>
       </c>
       <c r="H260" t="s">
         <v>50</v>
@@ -7852,22 +7852,22 @@
         <v>30</v>
       </c>
       <c r="B261" t="n">
-        <v>0.0590546531260899</v>
+        <v>0.185690835352023</v>
       </c>
       <c r="C261" t="n">
-        <v>0.334559961176621</v>
+        <v>0.370133234437461</v>
       </c>
       <c r="D261" t="n">
-        <v>0.776484885180805</v>
+        <v>0.783569618135481</v>
       </c>
       <c r="E261" t="n">
-        <v>0.731787127263803</v>
+        <v>0.730868521322425</v>
       </c>
       <c r="F261" t="n">
-        <v>1.47089686877191</v>
+        <v>1.48034171156847</v>
       </c>
       <c r="G261" t="n">
-        <v>2.05621707020046</v>
+        <v>2.29494291392145</v>
       </c>
       <c r="H261" t="s">
         <v>50</v>
@@ -7881,22 +7881,22 @@
         <v>30</v>
       </c>
       <c r="B262" t="n">
-        <v>1.99015351825275</v>
+        <v>4.90382518630684</v>
       </c>
       <c r="C262" t="n">
-        <v>7.42283292281724</v>
+        <v>7.80596491973937</v>
       </c>
       <c r="D262" t="n">
-        <v>15.36354925516</v>
+        <v>15.4972330959367</v>
       </c>
       <c r="E262" t="n">
-        <v>15.1277265037278</v>
+        <v>15.2106642872999</v>
       </c>
       <c r="F262" t="n">
-        <v>24.9767451378872</v>
+        <v>24.9496282050622</v>
       </c>
       <c r="G262" t="n">
-        <v>34.6749881575945</v>
+        <v>32.7451171487335</v>
       </c>
       <c r="H262" t="s">
         <v>50</v>
@@ -8519,22 +8519,22 @@
         <v>34</v>
       </c>
       <c r="B284" t="n">
-        <v>0.521915272824827</v>
+        <v>0.522651404015069</v>
       </c>
       <c r="C284" t="n">
-        <v>0.689874526798288</v>
+        <v>0.689159824264333</v>
       </c>
       <c r="D284" t="n">
-        <v>1.10199674938008</v>
+        <v>1.10205974921172</v>
       </c>
       <c r="E284" t="n">
-        <v>1.04206119818028</v>
+        <v>1.04208710493789</v>
       </c>
       <c r="F284" t="n">
-        <v>2.0760085588743</v>
+        <v>2.07640132427748</v>
       </c>
       <c r="G284" t="n">
-        <v>2.91282128978228</v>
+        <v>2.9130833695708</v>
       </c>
       <c r="H284" t="s">
         <v>50</v>
@@ -8548,22 +8548,22 @@
         <v>34</v>
       </c>
       <c r="B285" t="n">
-        <v>7.53035942313146</v>
+        <v>7.51637037676042</v>
       </c>
       <c r="C285" t="n">
-        <v>11.0244076369831</v>
+        <v>11.0256286390349</v>
       </c>
       <c r="D285" t="n">
-        <v>19.479346647443</v>
+        <v>19.4794999502928</v>
       </c>
       <c r="E285" t="n">
-        <v>19.2409920351844</v>
+        <v>19.2415922763592</v>
       </c>
       <c r="F285" t="n">
-        <v>29.0090037978677</v>
+        <v>29.0109295918428</v>
       </c>
       <c r="G285" t="n">
-        <v>37.2912621515097</v>
+        <v>37.2916611109237</v>
       </c>
       <c r="H285" t="s">
         <v>50</v>
@@ -8577,22 +8577,22 @@
         <v>34</v>
       </c>
       <c r="B286" t="n">
-        <v>0.224049462420651</v>
+        <v>0.22401194883755</v>
       </c>
       <c r="C286" t="n">
-        <v>0.412486379084858</v>
+        <v>0.412522200181913</v>
       </c>
       <c r="D286" t="n">
-        <v>0.976141719632996</v>
+        <v>0.976146696366494</v>
       </c>
       <c r="E286" t="n">
-        <v>0.910940137403408</v>
+        <v>0.910964050789425</v>
       </c>
       <c r="F286" t="n">
-        <v>1.78588883295608</v>
+        <v>1.78587882364455</v>
       </c>
       <c r="G286" t="n">
-        <v>2.35926051395437</v>
+        <v>2.35930815990717</v>
       </c>
       <c r="H286" t="s">
         <v>50</v>
@@ -8606,19 +8606,19 @@
         <v>34</v>
       </c>
       <c r="B287" t="n">
-        <v>22741.9890861351</v>
+        <v>22737.1433611043</v>
       </c>
       <c r="C287" t="n">
-        <v>24200.6604756968</v>
+        <v>24204.8488093753</v>
       </c>
       <c r="D287" t="n">
-        <v>27311.0046576701</v>
+        <v>27311.0059544375</v>
       </c>
       <c r="E287" t="n">
-        <v>27283.4986432068</v>
+        <v>27284.2559338057</v>
       </c>
       <c r="F287" t="n">
-        <v>30611.625100526</v>
+        <v>30610.7018400346</v>
       </c>
       <c r="G287" t="n">
         <v>33268.0015988807</v>
@@ -8635,22 +8635,22 @@
         <v>34</v>
       </c>
       <c r="B288" t="n">
-        <v>2317.21646952829</v>
+        <v>2317.02395644087</v>
       </c>
       <c r="C288" t="n">
-        <v>2718.79310537551</v>
+        <v>2718.96578639967</v>
       </c>
       <c r="D288" t="n">
-        <v>3491.1441526756</v>
+        <v>3491.14414091233</v>
       </c>
       <c r="E288" t="n">
-        <v>3469.8322937408</v>
+        <v>3469.86807322908</v>
       </c>
       <c r="F288" t="n">
-        <v>4399.00070277027</v>
+        <v>4398.66186943929</v>
       </c>
       <c r="G288" t="n">
-        <v>5004.10932426368</v>
+        <v>5003.89903715285</v>
       </c>
       <c r="H288" t="s">
         <v>50</v>
@@ -8664,22 +8664,22 @@
         <v>34</v>
       </c>
       <c r="B289" t="n">
-        <v>0.332329835699295</v>
+        <v>0.332519205754388</v>
       </c>
       <c r="C289" t="n">
-        <v>0.424870637869822</v>
+        <v>0.424857668784124</v>
       </c>
       <c r="D289" t="n">
-        <v>0.733895716911075</v>
+        <v>0.733902794566374</v>
       </c>
       <c r="E289" t="n">
-        <v>0.680063649339181</v>
+        <v>0.680147956752488</v>
       </c>
       <c r="F289" t="n">
-        <v>1.31503540659299</v>
+        <v>1.31531568627512</v>
       </c>
       <c r="G289" t="n">
-        <v>1.77722501130308</v>
+        <v>1.77714274596252</v>
       </c>
       <c r="H289" t="s">
         <v>50</v>
@@ -8693,22 +8693,22 @@
         <v>34</v>
       </c>
       <c r="B290" t="n">
-        <v>7.29718400356762</v>
+        <v>7.29506482784478</v>
       </c>
       <c r="C290" t="n">
-        <v>8.84139600502582</v>
+        <v>8.84460944775761</v>
       </c>
       <c r="D290" t="n">
-        <v>14.0766251754397</v>
+        <v>14.0767587257302</v>
       </c>
       <c r="E290" t="n">
-        <v>13.7042852533324</v>
+        <v>13.7052332038407</v>
       </c>
       <c r="F290" t="n">
-        <v>21.9351353929803</v>
+        <v>21.9353386900458</v>
       </c>
       <c r="G290" t="n">
-        <v>27.0220008573527</v>
+        <v>27.019560730574</v>
       </c>
       <c r="H290" t="s">
         <v>50</v>
@@ -15465,22 +15465,22 @@
         <v>9</v>
       </c>
       <c r="B534" t="n">
-        <v>9.38297927815016</v>
+        <v>16.9123294538986</v>
       </c>
       <c r="C534" t="n">
-        <v>70.3323586214108</v>
+        <v>72.1844333911132</v>
       </c>
       <c r="D534" t="n">
-        <v>210.649052796285</v>
+        <v>212.52171467628</v>
       </c>
       <c r="E534" t="n">
-        <v>185.50980915164</v>
+        <v>187.873975229808</v>
       </c>
       <c r="F534" t="n">
-        <v>522.961589619697</v>
+        <v>522.307741622641</v>
       </c>
       <c r="G534" t="n">
-        <v>1397.72042274296</v>
+        <v>1480.07869776322</v>
       </c>
       <c r="H534" t="s">
         <v>62</v>
@@ -15494,22 +15494,22 @@
         <v>9</v>
       </c>
       <c r="B535" t="n">
-        <v>265.800086582868</v>
+        <v>278.565970934573</v>
       </c>
       <c r="C535" t="n">
-        <v>1270.29086497098</v>
+        <v>1263.00585462214</v>
       </c>
       <c r="D535" t="n">
-        <v>3779.60403435797</v>
+        <v>3784.5961927777</v>
       </c>
       <c r="E535" t="n">
-        <v>3466.61840966613</v>
+        <v>3471.32835623928</v>
       </c>
       <c r="F535" t="n">
-        <v>8119.62597465672</v>
+        <v>8139.3077458154</v>
       </c>
       <c r="G535" t="n">
-        <v>17420.807620709</v>
+        <v>17365.1012379972</v>
       </c>
       <c r="H535" t="s">
         <v>62</v>
@@ -15523,22 +15523,22 @@
         <v>9</v>
       </c>
       <c r="B536" t="n">
-        <v>3.952248901051</v>
+        <v>4.24530731472179</v>
       </c>
       <c r="C536" t="n">
-        <v>26.2808013967756</v>
+        <v>26.4615840447184</v>
       </c>
       <c r="D536" t="n">
-        <v>161.918383985026</v>
+        <v>162.068923304327</v>
       </c>
       <c r="E536" t="n">
-        <v>125.916015860681</v>
+        <v>126.258179924209</v>
       </c>
       <c r="F536" t="n">
-        <v>473.037340015814</v>
+        <v>473.006791506418</v>
       </c>
       <c r="G536" t="n">
-        <v>1135.63337823858</v>
+        <v>1108.80593045325</v>
       </c>
       <c r="H536" t="s">
         <v>62</v>
@@ -15555,19 +15555,19 @@
         <v>323129.351895534</v>
       </c>
       <c r="C537" t="n">
-        <v>2228856.92388419</v>
+        <v>2227231.29627139</v>
       </c>
       <c r="D537" t="n">
-        <v>4634201.7160426</v>
+        <v>4634636.84050374</v>
       </c>
       <c r="E537" t="n">
-        <v>4424726.46807795</v>
+        <v>4427318.54732101</v>
       </c>
       <c r="F537" t="n">
-        <v>8320294.43133464</v>
+        <v>8321242.80092344</v>
       </c>
       <c r="G537" t="n">
-        <v>14463209.0126433</v>
+        <v>14556456.6835871</v>
       </c>
       <c r="H537" t="s">
         <v>62</v>
@@ -15581,22 +15581,22 @@
         <v>9</v>
       </c>
       <c r="B538" t="n">
-        <v>40501.0648715663</v>
+        <v>40412.1108373157</v>
       </c>
       <c r="C538" t="n">
-        <v>269492.234815682</v>
+        <v>269547.890433019</v>
       </c>
       <c r="D538" t="n">
-        <v>588167.550658871</v>
+        <v>588162.004109428</v>
       </c>
       <c r="E538" t="n">
-        <v>554792.530490285</v>
+        <v>554785.529075141</v>
       </c>
       <c r="F538" t="n">
-        <v>1104210.43806044</v>
+        <v>1103669.68964673</v>
       </c>
       <c r="G538" t="n">
-        <v>2055756.17866861</v>
+        <v>2052726.36822182</v>
       </c>
       <c r="H538" t="s">
         <v>62</v>
@@ -15610,22 +15610,22 @@
         <v>9</v>
       </c>
       <c r="B539" t="n">
-        <v>8.65754029677217</v>
+        <v>7.91799966697913</v>
       </c>
       <c r="C539" t="n">
-        <v>40.2477238960438</v>
+        <v>40.6450616161267</v>
       </c>
       <c r="D539" t="n">
-        <v>140.180800820818</v>
+        <v>140.383292733</v>
       </c>
       <c r="E539" t="n">
-        <v>117.458798854541</v>
+        <v>117.758190942659</v>
       </c>
       <c r="F539" t="n">
-        <v>374.356927161165</v>
+        <v>374.215606488839</v>
       </c>
       <c r="G539" t="n">
-        <v>971.521464924716</v>
+        <v>981.214122689741</v>
       </c>
       <c r="H539" t="s">
         <v>62</v>
@@ -15639,22 +15639,22 @@
         <v>9</v>
       </c>
       <c r="B540" t="n">
-        <v>178.937803899106</v>
+        <v>172.787813636636</v>
       </c>
       <c r="C540" t="n">
-        <v>948.278987046867</v>
+        <v>949.980628020797</v>
       </c>
       <c r="D540" t="n">
-        <v>2829.04756294634</v>
+        <v>2833.3762715797</v>
       </c>
       <c r="E540" t="n">
-        <v>2550.152057184</v>
+        <v>2554.80985571657</v>
       </c>
       <c r="F540" t="n">
-        <v>6306.90628141649</v>
+        <v>6306.80982135696</v>
       </c>
       <c r="G540" t="n">
-        <v>14645.4527128955</v>
+        <v>14790.7147322133</v>
       </c>
       <c r="H540" t="s">
         <v>62</v>
@@ -15668,22 +15668,22 @@
         <v>11</v>
       </c>
       <c r="B541" t="n">
-        <v>-2631.28725267502</v>
+        <v>219.776007981156</v>
       </c>
       <c r="C541" t="n">
-        <v>449.103602142345</v>
+        <v>677.576464419978</v>
       </c>
       <c r="D541" t="n">
-        <v>2461.37558733314</v>
+        <v>2524.85466946125</v>
       </c>
       <c r="E541" t="n">
-        <v>2246.24042911293</v>
+        <v>2304.46355433812</v>
       </c>
       <c r="F541" t="n">
-        <v>5614.24280306761</v>
+        <v>5692.94177519751</v>
       </c>
       <c r="G541" t="n">
-        <v>16766.2297463187</v>
+        <v>17212.1051012393</v>
       </c>
       <c r="H541" t="s">
         <v>62</v>
@@ -15697,22 +15697,22 @@
         <v>11</v>
       </c>
       <c r="B542" t="n">
-        <v>-6315.87207364823</v>
+        <v>521.724914545658</v>
       </c>
       <c r="C542" t="n">
-        <v>1510.66531989507</v>
+        <v>2080.19032913248</v>
       </c>
       <c r="D542" t="n">
-        <v>7923.2320570856</v>
+        <v>8088.57014962018</v>
       </c>
       <c r="E542" t="n">
-        <v>7256.30131458073</v>
+        <v>7381.9573556965</v>
       </c>
       <c r="F542" t="n">
-        <v>18121.546284088</v>
+        <v>18217.0494109001</v>
       </c>
       <c r="G542" t="n">
-        <v>57160.2955488002</v>
+        <v>50054.1815494979</v>
       </c>
       <c r="H542" t="s">
         <v>62</v>
@@ -15726,22 +15726,22 @@
         <v>11</v>
       </c>
       <c r="B543" t="n">
-        <v>-216.815371083099</v>
+        <v>12.9737581335933</v>
       </c>
       <c r="C543" t="n">
-        <v>41.467262671348</v>
+        <v>59.7671060057547</v>
       </c>
       <c r="D543" t="n">
-        <v>217.232247177452</v>
+        <v>222.374173289185</v>
       </c>
       <c r="E543" t="n">
-        <v>199.686476978894</v>
+        <v>202.480777209283</v>
       </c>
       <c r="F543" t="n">
-        <v>493.899666389063</v>
+        <v>502.257459823612</v>
       </c>
       <c r="G543" t="n">
-        <v>1079.91056500642</v>
+        <v>1217.93502430594</v>
       </c>
       <c r="H543" t="s">
         <v>62</v>
@@ -15755,22 +15755,22 @@
         <v>11</v>
       </c>
       <c r="B544" t="n">
-        <v>1431790.0006415</v>
+        <v>1681448.43477483</v>
       </c>
       <c r="C544" t="n">
-        <v>4785974.00692377</v>
+        <v>4826991.36461826</v>
       </c>
       <c r="D544" t="n">
-        <v>11707923.6247596</v>
+        <v>11698041.318948</v>
       </c>
       <c r="E544" t="n">
-        <v>10916258.0862212</v>
+        <v>10918521.4099957</v>
       </c>
       <c r="F544" t="n">
-        <v>23104469.2294284</v>
+        <v>23070277.287087</v>
       </c>
       <c r="G544" t="n">
-        <v>59320715.7640779</v>
+        <v>71496863.2753904</v>
       </c>
       <c r="H544" t="s">
         <v>62</v>
@@ -15784,22 +15784,22 @@
         <v>11</v>
       </c>
       <c r="B545" t="n">
-        <v>145538.913786371</v>
+        <v>151245.990565495</v>
       </c>
       <c r="C545" t="n">
-        <v>471755.110387626</v>
+        <v>470340.553542313</v>
       </c>
       <c r="D545" t="n">
-        <v>1148569.79949572</v>
+        <v>1149030.54215648</v>
       </c>
       <c r="E545" t="n">
-        <v>1075478.29639556</v>
+        <v>1074842.72681535</v>
       </c>
       <c r="F545" t="n">
-        <v>2261488.2403523</v>
+        <v>2248097.5813695</v>
       </c>
       <c r="G545" t="n">
-        <v>7236396.29791499</v>
+        <v>5995321.85116521</v>
       </c>
       <c r="H545" t="s">
         <v>62</v>
@@ -15813,22 +15813,22 @@
         <v>11</v>
       </c>
       <c r="B546" t="n">
-        <v>-244.297528485253</v>
+        <v>25.1145009104594</v>
       </c>
       <c r="C546" t="n">
-        <v>59.9321748659895</v>
+        <v>89.4714600460654</v>
       </c>
       <c r="D546" t="n">
-        <v>328.298410894643</v>
+        <v>335.59459787747</v>
       </c>
       <c r="E546" t="n">
-        <v>302.120132429782</v>
+        <v>304.52122340388</v>
       </c>
       <c r="F546" t="n">
-        <v>750.013870845023</v>
+        <v>757.970418794893</v>
       </c>
       <c r="G546" t="n">
-        <v>2140.49336188373</v>
+        <v>2616.59631653716</v>
       </c>
       <c r="H546" t="s">
         <v>62</v>
@@ -15842,22 +15842,22 @@
         <v>11</v>
       </c>
       <c r="B547" t="n">
-        <v>-5521.673067005</v>
+        <v>356.347601359109</v>
       </c>
       <c r="C547" t="n">
-        <v>1117.11728497513</v>
+        <v>1656.32770245942</v>
       </c>
       <c r="D547" t="n">
-        <v>6243.26454464963</v>
+        <v>6361.01535420897</v>
       </c>
       <c r="E547" t="n">
-        <v>5736.12015575292</v>
+        <v>5828.99421450088</v>
       </c>
       <c r="F547" t="n">
-        <v>14318.0916617094</v>
+        <v>14231.0477148732</v>
       </c>
       <c r="G547" t="n">
-        <v>46355.1906716777</v>
+        <v>33303.8615460001</v>
       </c>
       <c r="H547" t="s">
         <v>62</v>
@@ -15871,22 +15871,22 @@
         <v>12</v>
       </c>
       <c r="B548" t="n">
-        <v>15.4080016301593</v>
+        <v>37.6965925828632</v>
       </c>
       <c r="C548" t="n">
-        <v>137.829210900185</v>
+        <v>143.394746325306</v>
       </c>
       <c r="D548" t="n">
-        <v>427.189342050032</v>
+        <v>431.188627022593</v>
       </c>
       <c r="E548" t="n">
-        <v>374.659274294276</v>
+        <v>378.410167632539</v>
       </c>
       <c r="F548" t="n">
-        <v>1084.06759181572</v>
+        <v>1092.70640516238</v>
       </c>
       <c r="G548" t="n">
-        <v>2950.22254897532</v>
+        <v>2781.3764982206</v>
       </c>
       <c r="H548" t="s">
         <v>62</v>
@@ -15900,22 +15900,22 @@
         <v>12</v>
       </c>
       <c r="B549" t="n">
-        <v>677.129823895965</v>
+        <v>719.827176665528</v>
       </c>
       <c r="C549" t="n">
-        <v>2397.3189861565</v>
+        <v>2383.21866959589</v>
       </c>
       <c r="D549" t="n">
-        <v>7577.0367681765</v>
+        <v>7588.95908815401</v>
       </c>
       <c r="E549" t="n">
-        <v>6921.63897544271</v>
+        <v>6930.9648823337</v>
       </c>
       <c r="F549" t="n">
-        <v>16662.212236145</v>
+        <v>16695.9967988345</v>
       </c>
       <c r="G549" t="n">
-        <v>33589.4601526878</v>
+        <v>32531.0788322406</v>
       </c>
       <c r="H549" t="s">
         <v>62</v>
@@ -15929,22 +15929,22 @@
         <v>12</v>
       </c>
       <c r="B550" t="n">
-        <v>9.72585583983499</v>
+        <v>10.2355402376766</v>
       </c>
       <c r="C550" t="n">
-        <v>41.6394666918364</v>
+        <v>41.710945559257</v>
       </c>
       <c r="D550" t="n">
-        <v>320.709863125223</v>
+        <v>321.028177713941</v>
       </c>
       <c r="E550" t="n">
-        <v>244.02177159278</v>
+        <v>244.733569907261</v>
       </c>
       <c r="F550" t="n">
-        <v>971.670009101617</v>
+        <v>969.434614262886</v>
       </c>
       <c r="G550" t="n">
-        <v>1938.74599670138</v>
+        <v>1915.39125403673</v>
       </c>
       <c r="H550" t="s">
         <v>62</v>
@@ -15958,19 +15958,19 @@
         <v>12</v>
       </c>
       <c r="B551" t="n">
-        <v>1415077.32040018</v>
+        <v>1412796.45801245</v>
       </c>
       <c r="C551" t="n">
-        <v>4323699.90499197</v>
+        <v>4318054.17307404</v>
       </c>
       <c r="D551" t="n">
-        <v>9074079.78547725</v>
+        <v>9075031.0958055</v>
       </c>
       <c r="E551" t="n">
-        <v>8643403.7552055</v>
+        <v>8641965.17901202</v>
       </c>
       <c r="F551" t="n">
-        <v>16708999.2783653</v>
+        <v>16769610.8240448</v>
       </c>
       <c r="G551" t="n">
         <v>28255150.6527006</v>
@@ -15987,22 +15987,22 @@
         <v>12</v>
       </c>
       <c r="B552" t="n">
-        <v>153056.986180527</v>
+        <v>148294.277739096</v>
       </c>
       <c r="C552" t="n">
-        <v>520723.991751054</v>
+        <v>521796.913613021</v>
       </c>
       <c r="D552" t="n">
-        <v>1155283.8342645</v>
+        <v>1155250.71934263</v>
       </c>
       <c r="E552" t="n">
-        <v>1084476.13553892</v>
+        <v>1084533.80266271</v>
       </c>
       <c r="F552" t="n">
-        <v>2230244.67085178</v>
+        <v>2220528.13925109</v>
       </c>
       <c r="G552" t="n">
-        <v>4397677.81566659</v>
+        <v>4382646.45765804</v>
       </c>
       <c r="H552" t="s">
         <v>62</v>
@@ -16016,22 +16016,22 @@
         <v>12</v>
       </c>
       <c r="B553" t="n">
-        <v>22.8255586645684</v>
+        <v>23.5690732712672</v>
       </c>
       <c r="C553" t="n">
-        <v>74.3604581018408</v>
+        <v>75.1275015309899</v>
       </c>
       <c r="D553" t="n">
-        <v>278.548601250263</v>
+        <v>278.999657142507</v>
       </c>
       <c r="E553" t="n">
-        <v>231.942835197318</v>
+        <v>231.66195575272</v>
       </c>
       <c r="F553" t="n">
-        <v>761.597989645772</v>
+        <v>762.473502774223</v>
       </c>
       <c r="G553" t="n">
-        <v>1892.25253984722</v>
+        <v>1873.13781773338</v>
       </c>
       <c r="H553" t="s">
         <v>62</v>
@@ -16045,22 +16045,22 @@
         <v>12</v>
       </c>
       <c r="B554" t="n">
-        <v>620.365281035211</v>
+        <v>645.907359283363</v>
       </c>
       <c r="C554" t="n">
-        <v>1819.94311240268</v>
+        <v>1844.04888234337</v>
       </c>
       <c r="D554" t="n">
-        <v>5665.99994730351</v>
+        <v>5674.98624990055</v>
       </c>
       <c r="E554" t="n">
-        <v>5072.58727455087</v>
+        <v>5085.45725693421</v>
       </c>
       <c r="F554" t="n">
-        <v>12882.4982352009</v>
+        <v>12781.9733402553</v>
       </c>
       <c r="G554" t="n">
-        <v>30395.7998333833</v>
+        <v>30734.7761791016</v>
       </c>
       <c r="H554" t="s">
         <v>62</v>
@@ -16074,22 +16074,22 @@
         <v>13</v>
       </c>
       <c r="B555" t="n">
-        <v>-7706.99155529062</v>
+        <v>561.318558181045</v>
       </c>
       <c r="C555" t="n">
-        <v>1771.29438563897</v>
+        <v>2657.32530525071</v>
       </c>
       <c r="D555" t="n">
-        <v>9563.49520536298</v>
+        <v>9805.23734571603</v>
       </c>
       <c r="E555" t="n">
-        <v>8733.29967921474</v>
+        <v>8930.98341734911</v>
       </c>
       <c r="F555" t="n">
-        <v>22001.4582725675</v>
+        <v>22095.8530543836</v>
       </c>
       <c r="G555" t="n">
-        <v>68243.5481612137</v>
+        <v>88586.6126762079</v>
       </c>
       <c r="H555" t="s">
         <v>62</v>
@@ -16103,22 +16103,22 @@
         <v>13</v>
       </c>
       <c r="B556" t="n">
-        <v>-20692.8279401749</v>
+        <v>2020.57462899145</v>
       </c>
       <c r="C556" t="n">
-        <v>5938.51748538146</v>
+        <v>8097.77888381112</v>
       </c>
       <c r="D556" t="n">
-        <v>30780.735997833</v>
+        <v>31425.0242065044</v>
       </c>
       <c r="E556" t="n">
-        <v>28210.6599597288</v>
+        <v>28587.4747135346</v>
       </c>
       <c r="F556" t="n">
-        <v>70959.1335961723</v>
+        <v>70891.7500127704</v>
       </c>
       <c r="G556" t="n">
-        <v>160127.211388589</v>
+        <v>193622.889573205</v>
       </c>
       <c r="H556" t="s">
         <v>62</v>
@@ -16132,22 +16132,22 @@
         <v>13</v>
       </c>
       <c r="B557" t="n">
-        <v>-791.873632164446</v>
+        <v>65.0378511118606</v>
       </c>
       <c r="C557" t="n">
-        <v>160.543629691391</v>
+        <v>230.288964319365</v>
       </c>
       <c r="D557" t="n">
-        <v>844.663471601218</v>
+        <v>864.139281427116</v>
       </c>
       <c r="E557" t="n">
-        <v>774.807104756703</v>
+        <v>788.695642950661</v>
       </c>
       <c r="F557" t="n">
-        <v>1938.16725300477</v>
+        <v>1951.92143553846</v>
       </c>
       <c r="G557" t="n">
-        <v>3777.52863800377</v>
+        <v>5635.58472856417</v>
       </c>
       <c r="H557" t="s">
         <v>62</v>
@@ -16164,19 +16164,19 @@
         <v>3762757.51317867</v>
       </c>
       <c r="C558" t="n">
-        <v>18594224.6290153</v>
+        <v>18802079.7918533</v>
       </c>
       <c r="D558" t="n">
-        <v>45434382.0722832</v>
+        <v>45443576.6307803</v>
       </c>
       <c r="E558" t="n">
-        <v>42527454.9841422</v>
+        <v>42397521.3135237</v>
       </c>
       <c r="F558" t="n">
-        <v>89608359.9012208</v>
+        <v>89687451.0654789</v>
       </c>
       <c r="G558" t="n">
-        <v>313174591.183937</v>
+        <v>324031806.227756</v>
       </c>
       <c r="H558" t="s">
         <v>62</v>
@@ -16190,22 +16190,22 @@
         <v>13</v>
       </c>
       <c r="B559" t="n">
-        <v>477185.127740248</v>
+        <v>351546.669260988</v>
       </c>
       <c r="C559" t="n">
-        <v>1833246.37161657</v>
+        <v>1832011.89760244</v>
       </c>
       <c r="D559" t="n">
-        <v>4463921.73803185</v>
+        <v>4464319.22259146</v>
       </c>
       <c r="E559" t="n">
-        <v>4163537.53252297</v>
+        <v>4159798.75401164</v>
       </c>
       <c r="F559" t="n">
-        <v>8838779.60657897</v>
+        <v>8864999.23183932</v>
       </c>
       <c r="G559" t="n">
-        <v>27914294.8051719</v>
+        <v>30960422.4110219</v>
       </c>
       <c r="H559" t="s">
         <v>62</v>
@@ -16219,22 +16219,22 @@
         <v>13</v>
       </c>
       <c r="B560" t="n">
-        <v>-1196.64642109119</v>
+        <v>74.5032224011069</v>
       </c>
       <c r="C560" t="n">
-        <v>236.944476732501</v>
+        <v>344.142210146855</v>
       </c>
       <c r="D560" t="n">
-        <v>1275.51810893174</v>
+        <v>1303.9093553271</v>
       </c>
       <c r="E560" t="n">
-        <v>1168.65081969428</v>
+        <v>1184.74397477112</v>
       </c>
       <c r="F560" t="n">
-        <v>2919.34429204361</v>
+        <v>2964.26992457916</v>
       </c>
       <c r="G560" t="n">
-        <v>6711.38281294204</v>
+        <v>13813.9176368662</v>
       </c>
       <c r="H560" t="s">
         <v>62</v>
@@ -16248,22 +16248,22 @@
         <v>13</v>
       </c>
       <c r="B561" t="n">
-        <v>-18777.5516962746</v>
+        <v>1865.97013453844</v>
       </c>
       <c r="C561" t="n">
-        <v>4383.29315105452</v>
+        <v>6404.71317609321</v>
       </c>
       <c r="D561" t="n">
-        <v>24245.8031577971</v>
+        <v>24718.4487474382</v>
       </c>
       <c r="E561" t="n">
-        <v>22268.2502849052</v>
+        <v>22572.8342347288</v>
       </c>
       <c r="F561" t="n">
-        <v>55396.3350518144</v>
+        <v>55402.5590563538</v>
       </c>
       <c r="G561" t="n">
-        <v>244725.096467011</v>
+        <v>173720.927913676</v>
       </c>
       <c r="H561" t="s">
         <v>62</v>
@@ -16277,22 +16277,22 @@
         <v>14</v>
       </c>
       <c r="B562" t="n">
-        <v>-6630.29233175019</v>
+        <v>277.862492936514</v>
       </c>
       <c r="C562" t="n">
-        <v>1106.77645132673</v>
+        <v>1640.86472280858</v>
       </c>
       <c r="D562" t="n">
-        <v>5978.24768320289</v>
+        <v>6132.51951496559</v>
       </c>
       <c r="E562" t="n">
-        <v>5454.8653359022</v>
+        <v>5579.36476505386</v>
       </c>
       <c r="F562" t="n">
-        <v>13761.2982950952</v>
+        <v>13797.0994933974</v>
       </c>
       <c r="G562" t="n">
-        <v>37541.9277636859</v>
+        <v>53572.1475487155</v>
       </c>
       <c r="H562" t="s">
         <v>62</v>
@@ -16306,22 +16306,22 @@
         <v>14</v>
       </c>
       <c r="B563" t="n">
-        <v>-17558.7968166029</v>
+        <v>819.596916816245</v>
       </c>
       <c r="C563" t="n">
-        <v>3675.72347760514</v>
+        <v>5118.53107306136</v>
       </c>
       <c r="D563" t="n">
-        <v>19245.1568211387</v>
+        <v>19630.4175324653</v>
       </c>
       <c r="E563" t="n">
-        <v>17620.6726134105</v>
+        <v>17890.9707945316</v>
       </c>
       <c r="F563" t="n">
-        <v>44234.7160739177</v>
+        <v>44177.4711283639</v>
       </c>
       <c r="G563" t="n">
-        <v>113895.109163486</v>
+        <v>125670.302721513</v>
       </c>
       <c r="H563" t="s">
         <v>62</v>
@@ -16335,22 +16335,22 @@
         <v>14</v>
       </c>
       <c r="B564" t="n">
-        <v>-607.454076000548</v>
+        <v>25.6176273655598</v>
       </c>
       <c r="C564" t="n">
-        <v>100.038271958215</v>
+        <v>144.52656251813</v>
       </c>
       <c r="D564" t="n">
-        <v>528.080162541952</v>
+        <v>540.117828664552</v>
       </c>
       <c r="E564" t="n">
-        <v>484.818063961782</v>
+        <v>492.284967222763</v>
       </c>
       <c r="F564" t="n">
-        <v>1207.84864285243</v>
+        <v>1220.25372911816</v>
       </c>
       <c r="G564" t="n">
-        <v>3247.18038792951</v>
+        <v>3142.24698724297</v>
       </c>
       <c r="H564" t="s">
         <v>62</v>
@@ -16364,22 +16364,22 @@
         <v>14</v>
       </c>
       <c r="B565" t="n">
-        <v>2868242.99780848</v>
+        <v>3681202.22466431</v>
       </c>
       <c r="C565" t="n">
-        <v>11590612.018783</v>
+        <v>11652863.8875231</v>
       </c>
       <c r="D565" t="n">
-        <v>28428457.1598077</v>
+        <v>28415575.8543147</v>
       </c>
       <c r="E565" t="n">
-        <v>26576219.402568</v>
+        <v>26587212.6062123</v>
       </c>
       <c r="F565" t="n">
-        <v>55914298.2327204</v>
+        <v>55748997.6572134</v>
       </c>
       <c r="G565" t="n">
-        <v>172282628.855623</v>
+        <v>179506130.623108</v>
       </c>
       <c r="H565" t="s">
         <v>62</v>
@@ -16393,22 +16393,22 @@
         <v>14</v>
       </c>
       <c r="B566" t="n">
-        <v>330722.213515574</v>
+        <v>322134.716715831</v>
       </c>
       <c r="C566" t="n">
-        <v>1145193.79296196</v>
+        <v>1142381.20615976</v>
       </c>
       <c r="D566" t="n">
-        <v>2788120.57172185</v>
+        <v>2790127.43158353</v>
       </c>
       <c r="E566" t="n">
-        <v>2608436.38702503</v>
+        <v>2605913.31019109</v>
       </c>
       <c r="F566" t="n">
-        <v>5469653.63555624</v>
+        <v>5516981.96122494</v>
       </c>
       <c r="G566" t="n">
-        <v>18168314.5187884</v>
+        <v>17031850.9662191</v>
       </c>
       <c r="H566" t="s">
         <v>62</v>
@@ -16422,22 +16422,22 @@
         <v>14</v>
       </c>
       <c r="B567" t="n">
-        <v>-633.277259062113</v>
+        <v>54.2207344605224</v>
       </c>
       <c r="C567" t="n">
-        <v>149.226582904058</v>
+        <v>216.551975201488</v>
       </c>
       <c r="D567" t="n">
-        <v>797.022598916624</v>
+        <v>815.220932514945</v>
       </c>
       <c r="E567" t="n">
-        <v>731.684290698213</v>
+        <v>740.155737630747</v>
       </c>
       <c r="F567" t="n">
-        <v>1812.30784230795</v>
+        <v>1840.22366791229</v>
       </c>
       <c r="G567" t="n">
-        <v>4966.4709329655</v>
+        <v>7599.26926471688</v>
       </c>
       <c r="H567" t="s">
         <v>62</v>
@@ -16451,22 +16451,22 @@
         <v>14</v>
       </c>
       <c r="B568" t="n">
-        <v>-16779.6580373481</v>
+        <v>925.751830323584</v>
       </c>
       <c r="C568" t="n">
-        <v>2770.52474595315</v>
+        <v>4025.79608445587</v>
       </c>
       <c r="D568" t="n">
-        <v>15151.7529332063</v>
+        <v>15451.3684785266</v>
       </c>
       <c r="E568" t="n">
-        <v>13880.1892003903</v>
+        <v>14110.9916915977</v>
       </c>
       <c r="F568" t="n">
-        <v>34648.7677368353</v>
+        <v>34738.9884802834</v>
       </c>
       <c r="G568" t="n">
-        <v>134627.406415356</v>
+        <v>100651.166469558</v>
       </c>
       <c r="H568" t="s">
         <v>62</v>
@@ -19525,22 +19525,22 @@
         <v>30</v>
       </c>
       <c r="B674" t="n">
-        <v>-711.347168873696</v>
+        <v>171.773853033198</v>
       </c>
       <c r="C674" t="n">
-        <v>515.224095159304</v>
+        <v>647.189634862436</v>
       </c>
       <c r="D674" t="n">
-        <v>1913.7479679082</v>
+        <v>1950.8323427122</v>
       </c>
       <c r="E674" t="n">
-        <v>1791.74378893833</v>
+        <v>1832.93441114554</v>
       </c>
       <c r="F674" t="n">
-        <v>3981.84712893439</v>
+        <v>3939.31912247879</v>
       </c>
       <c r="G674" t="n">
-        <v>7726.35081120263</v>
+        <v>10364.5205566369</v>
       </c>
       <c r="H674" t="s">
         <v>62</v>
@@ -19554,22 +19554,22 @@
         <v>30</v>
       </c>
       <c r="B675" t="n">
-        <v>885.845944189902</v>
+        <v>1593.12970823164</v>
       </c>
       <c r="C675" t="n">
-        <v>4879.07820985979</v>
+        <v>4967.68461586783</v>
       </c>
       <c r="D675" t="n">
-        <v>12681.0621912162</v>
+        <v>12779.7043434851</v>
       </c>
       <c r="E675" t="n">
-        <v>11993.2008129562</v>
+        <v>12081.2237290112</v>
       </c>
       <c r="F675" t="n">
-        <v>24384.8134629913</v>
+        <v>24352.7500555113</v>
       </c>
       <c r="G675" t="n">
-        <v>48402.7898318926</v>
+        <v>45158.1329748027</v>
       </c>
       <c r="H675" t="s">
         <v>62</v>
@@ -19583,22 +19583,22 @@
         <v>30</v>
       </c>
       <c r="B676" t="n">
-        <v>-75.8382600999201</v>
+        <v>27.5279530529297</v>
       </c>
       <c r="C676" t="n">
-        <v>117.01534441336</v>
+        <v>120.567398373523</v>
       </c>
       <c r="D676" t="n">
-        <v>466.438493507248</v>
+        <v>469.58954373326</v>
       </c>
       <c r="E676" t="n">
-        <v>393.658587236667</v>
+        <v>398.51519472399</v>
       </c>
       <c r="F676" t="n">
-        <v>1167.0345894228</v>
+        <v>1163.34563585659</v>
       </c>
       <c r="G676" t="n">
-        <v>2805.88248089221</v>
+        <v>2934.61120961717</v>
       </c>
       <c r="H676" t="s">
         <v>62</v>
@@ -19612,22 +19612,22 @@
         <v>30</v>
       </c>
       <c r="B677" t="n">
-        <v>2958443.33295773</v>
+        <v>2451814.58376023</v>
       </c>
       <c r="C677" t="n">
-        <v>8247091.84026778</v>
+        <v>8237171.25375995</v>
       </c>
       <c r="D677" t="n">
-        <v>16493497.6602691</v>
+        <v>16496434.5162377</v>
       </c>
       <c r="E677" t="n">
-        <v>15984835.0830824</v>
+        <v>15984399.7383934</v>
       </c>
       <c r="F677" t="n">
-        <v>27846798.2969979</v>
+        <v>27786629.2690138</v>
       </c>
       <c r="G677" t="n">
-        <v>57071717.9537495</v>
+        <v>56799150.1728787</v>
       </c>
       <c r="H677" t="s">
         <v>62</v>
@@ -19641,22 +19641,22 @@
         <v>30</v>
       </c>
       <c r="B678" t="n">
-        <v>231249.239237776</v>
+        <v>266313.996536319</v>
       </c>
       <c r="C678" t="n">
-        <v>929968.192632558</v>
+        <v>929808.180897281</v>
       </c>
       <c r="D678" t="n">
-        <v>1897595.55958237</v>
+        <v>1897466.53825229</v>
       </c>
       <c r="E678" t="n">
-        <v>1829170.30570968</v>
+        <v>1829282.01720424</v>
       </c>
       <c r="F678" t="n">
-        <v>3267220.05489613</v>
+        <v>3259069.120556</v>
       </c>
       <c r="G678" t="n">
-        <v>6942238.96847301</v>
+        <v>6864075.02713734</v>
       </c>
       <c r="H678" t="s">
         <v>62</v>
@@ -19670,22 +19670,22 @@
         <v>30</v>
       </c>
       <c r="B679" t="n">
-        <v>14.4863730441736</v>
+        <v>41.0782260991317</v>
       </c>
       <c r="C679" t="n">
-        <v>167.373919004715</v>
+        <v>179.977664848514</v>
       </c>
       <c r="D679" t="n">
-        <v>489.204997374406</v>
+        <v>493.532387517635</v>
       </c>
       <c r="E679" t="n">
-        <v>444.873655004687</v>
+        <v>448.101897825015</v>
       </c>
       <c r="F679" t="n">
-        <v>1071.84524751411</v>
+        <v>1077.57580425296</v>
       </c>
       <c r="G679" t="n">
-        <v>2469.57739452775</v>
+        <v>2562.69078278897</v>
       </c>
       <c r="H679" t="s">
         <v>62</v>
@@ -19699,22 +19699,22 @@
         <v>30</v>
       </c>
       <c r="B680" t="n">
-        <v>479.093576450508</v>
+        <v>1052.15940773446</v>
       </c>
       <c r="C680" t="n">
-        <v>3632.51880081214</v>
+        <v>3777.92293120652</v>
       </c>
       <c r="D680" t="n">
-        <v>9669.02251849163</v>
+        <v>9755.78653364667</v>
       </c>
       <c r="E680" t="n">
-        <v>9081.7889660421</v>
+        <v>9166.41762877095</v>
       </c>
       <c r="F680" t="n">
-        <v>19009.161300656</v>
+        <v>18998.5496463879</v>
       </c>
       <c r="G680" t="n">
-        <v>38336.7079923317</v>
+        <v>40815.4669777481</v>
       </c>
       <c r="H680" t="s">
         <v>62</v>
@@ -20337,22 +20337,22 @@
         <v>34</v>
       </c>
       <c r="B702" t="n">
-        <v>0.555780407538207</v>
+        <v>0.555002931684873</v>
       </c>
       <c r="C702" t="n">
-        <v>1.84764645171318</v>
+        <v>1.8466751582238</v>
       </c>
       <c r="D702" t="n">
-        <v>4.19000487475987</v>
+        <v>4.19023903474423</v>
       </c>
       <c r="E702" t="n">
-        <v>3.88982060783966</v>
+        <v>3.89063424772668</v>
       </c>
       <c r="F702" t="n">
-        <v>8.52436873825286</v>
+        <v>8.52666694261152</v>
       </c>
       <c r="G702" t="n">
-        <v>19.1786127999431</v>
+        <v>19.1730041723212</v>
       </c>
       <c r="H702" t="s">
         <v>62</v>
@@ -20366,22 +20366,22 @@
         <v>34</v>
       </c>
       <c r="B703" t="n">
-        <v>10.7413052324302</v>
+        <v>10.7450706783485</v>
       </c>
       <c r="C703" t="n">
-        <v>31.2303737746154</v>
+        <v>31.2391992164838</v>
       </c>
       <c r="D703" t="n">
-        <v>74.0745446906078</v>
+        <v>74.0751492530289</v>
       </c>
       <c r="E703" t="n">
-        <v>70.3767980244747</v>
+        <v>70.3861629831747</v>
       </c>
       <c r="F703" t="n">
-        <v>137.877573495099</v>
+        <v>137.885029695777</v>
       </c>
       <c r="G703" t="n">
-        <v>247.659930850938</v>
+        <v>247.659828656701</v>
       </c>
       <c r="H703" t="s">
         <v>62</v>
@@ -20395,22 +20395,22 @@
         <v>34</v>
       </c>
       <c r="B704" t="n">
-        <v>0.421624635288648</v>
+        <v>0.421648041693833</v>
       </c>
       <c r="C704" t="n">
-        <v>1.24481481508831</v>
+        <v>1.24494717923111</v>
       </c>
       <c r="D704" t="n">
-        <v>3.71746303189527</v>
+        <v>3.71748212937073</v>
       </c>
       <c r="E704" t="n">
-        <v>3.34470842214592</v>
+        <v>3.34472822584448</v>
       </c>
       <c r="F704" t="n">
-        <v>8.13438925283958</v>
+        <v>8.13451529622497</v>
       </c>
       <c r="G704" t="n">
-        <v>14.929173039341</v>
+        <v>14.928002682994</v>
       </c>
       <c r="H704" t="s">
         <v>62</v>
@@ -20427,19 +20427,19 @@
         <v>22037.5744892964</v>
       </c>
       <c r="C705" t="n">
-        <v>53361.9326942479</v>
+        <v>53362.0388281397</v>
       </c>
       <c r="D705" t="n">
-        <v>103841.825142849</v>
+        <v>103841.835592891</v>
       </c>
       <c r="E705" t="n">
-        <v>101540.318853795</v>
+        <v>101535.460065353</v>
       </c>
       <c r="F705" t="n">
-        <v>168517.693487566</v>
+        <v>168523.415350928</v>
       </c>
       <c r="G705" t="n">
-        <v>252422.775618711</v>
+        <v>252459.053992923</v>
       </c>
       <c r="H705" t="s">
         <v>62</v>
@@ -20453,22 +20453,22 @@
         <v>34</v>
       </c>
       <c r="B706" t="n">
-        <v>2481.9503093908</v>
+        <v>2482.22087503029</v>
       </c>
       <c r="C706" t="n">
-        <v>6586.84920877142</v>
+        <v>6587.45030820964</v>
       </c>
       <c r="D706" t="n">
-        <v>13279.8399470649</v>
+        <v>13279.8392431229</v>
       </c>
       <c r="E706" t="n">
-        <v>12866.0688812362</v>
+        <v>12865.5571621944</v>
       </c>
       <c r="F706" t="n">
-        <v>22472.3797550116</v>
+        <v>22471.8728089992</v>
       </c>
       <c r="G706" t="n">
-        <v>39658.4802501175</v>
+        <v>39660.4239880004</v>
       </c>
       <c r="H706" t="s">
         <v>62</v>
@@ -20482,22 +20482,22 @@
         <v>34</v>
       </c>
       <c r="B707" t="n">
-        <v>0.362454456317041</v>
+        <v>0.362660992152793</v>
       </c>
       <c r="C707" t="n">
-        <v>1.15827091789605</v>
+        <v>1.15766851807837</v>
       </c>
       <c r="D707" t="n">
-        <v>2.79225526683328</v>
+        <v>2.79228054861567</v>
       </c>
       <c r="E707" t="n">
-        <v>2.55371461076425</v>
+        <v>2.55391038864362</v>
       </c>
       <c r="F707" t="n">
-        <v>5.86240538131315</v>
+        <v>5.86265694179101</v>
       </c>
       <c r="G707" t="n">
-        <v>12.1977383545117</v>
+        <v>12.1969143284786</v>
       </c>
       <c r="H707" t="s">
         <v>62</v>
@@ -20511,22 +20511,22 @@
         <v>34</v>
       </c>
       <c r="B708" t="n">
-        <v>9.37415777423198</v>
+        <v>9.37343795400406</v>
       </c>
       <c r="C708" t="n">
-        <v>23.6358711882352</v>
+        <v>23.6426308376843</v>
       </c>
       <c r="D708" t="n">
-        <v>53.4834183939602</v>
+        <v>53.4839385508865</v>
       </c>
       <c r="E708" t="n">
-        <v>50.4414129318978</v>
+        <v>50.4394359986608</v>
       </c>
       <c r="F708" t="n">
-        <v>100.446973912366</v>
+        <v>100.449088273378</v>
       </c>
       <c r="G708" t="n">
-        <v>176.360291655867</v>
+        <v>176.365717677642</v>
       </c>
       <c r="H708" t="s">
         <v>62</v>
@@ -23179,22 +23179,22 @@
         <v>9</v>
       </c>
       <c r="B800" t="n">
-        <v>8.02173210280347</v>
+        <v>14.9232620565345</v>
       </c>
       <c r="C800" t="n">
-        <v>55.7541752957184</v>
+        <v>57.3151461787417</v>
       </c>
       <c r="D800" t="n">
-        <v>168.473085916732</v>
+        <v>169.971123983102</v>
       </c>
       <c r="E800" t="n">
-        <v>148.065880976937</v>
+        <v>149.688623528538</v>
       </c>
       <c r="F800" t="n">
-        <v>420.164612064361</v>
+        <v>419.55524934415</v>
       </c>
       <c r="G800" t="n">
-        <v>1178.38764783952</v>
+        <v>1255.86835905212</v>
       </c>
       <c r="H800" t="s">
         <v>63</v>
@@ -23208,22 +23208,22 @@
         <v>9</v>
       </c>
       <c r="B801" t="n">
-        <v>186.489549822065</v>
+        <v>195.446296437299</v>
       </c>
       <c r="C801" t="n">
-        <v>1001.77556883483</v>
+        <v>1001.29771844649</v>
       </c>
       <c r="D801" t="n">
-        <v>3024.06768272053</v>
+        <v>3028.06556383705</v>
       </c>
       <c r="E801" t="n">
-        <v>2768.47540214556</v>
+        <v>2772.89125711769</v>
       </c>
       <c r="F801" t="n">
-        <v>6587.13555685444</v>
+        <v>6600.96504042483</v>
       </c>
       <c r="G801" t="n">
-        <v>13839.7993308821</v>
+        <v>13627.9705845113</v>
       </c>
       <c r="H801" t="s">
         <v>63</v>
@@ -23237,22 +23237,22 @@
         <v>9</v>
       </c>
       <c r="B802" t="n">
-        <v>3.28371020202577</v>
+        <v>3.52719661364938</v>
       </c>
       <c r="C802" t="n">
-        <v>20.8354155438166</v>
+        <v>20.9541419312852</v>
       </c>
       <c r="D802" t="n">
-        <v>129.470178570265</v>
+        <v>129.591208178318</v>
       </c>
       <c r="E802" t="n">
-        <v>100.541328360822</v>
+        <v>100.734060251295</v>
       </c>
       <c r="F802" t="n">
-        <v>380.082024439808</v>
+        <v>380.412110469104</v>
       </c>
       <c r="G802" t="n">
-        <v>901.182177999733</v>
+        <v>890.601617999269</v>
       </c>
       <c r="H802" t="s">
         <v>63</v>
@@ -23269,19 +23269,19 @@
         <v>249305.768095453</v>
       </c>
       <c r="C803" t="n">
-        <v>1752583.42832185</v>
+        <v>1751842.22099161</v>
       </c>
       <c r="D803" t="n">
-        <v>3705967.10975452</v>
+        <v>3706331.79885195</v>
       </c>
       <c r="E803" t="n">
-        <v>3531111.0416824</v>
+        <v>3530697.34896929</v>
       </c>
       <c r="F803" t="n">
-        <v>6744101.96287864</v>
+        <v>6759545.52864843</v>
       </c>
       <c r="G803" t="n">
-        <v>12353937.8872193</v>
+        <v>12686282.6759391</v>
       </c>
       <c r="H803" t="s">
         <v>63</v>
@@ -23295,22 +23295,22 @@
         <v>9</v>
       </c>
       <c r="B804" t="n">
-        <v>35631.1281288852</v>
+        <v>35552.8701225336</v>
       </c>
       <c r="C804" t="n">
-        <v>212739.116971961</v>
+        <v>212479.334474884</v>
       </c>
       <c r="D804" t="n">
-        <v>470326.49907512</v>
+        <v>470320.313061902</v>
       </c>
       <c r="E804" t="n">
-        <v>442369.785995461</v>
+        <v>442825.400662639</v>
       </c>
       <c r="F804" t="n">
-        <v>892156.982105617</v>
+        <v>892222.245465027</v>
       </c>
       <c r="G804" t="n">
-        <v>1744860.92835586</v>
+        <v>1747593.92118705</v>
       </c>
       <c r="H804" t="s">
         <v>63</v>
@@ -23324,22 +23324,22 @@
         <v>9</v>
       </c>
       <c r="B805" t="n">
-        <v>7.04318069663354</v>
+        <v>6.44154118822992</v>
       </c>
       <c r="C805" t="n">
-        <v>31.7541047141073</v>
+        <v>32.0097782049642</v>
       </c>
       <c r="D805" t="n">
-        <v>112.115222252413</v>
+        <v>112.276360512339</v>
       </c>
       <c r="E805" t="n">
-        <v>93.8974626730119</v>
+        <v>93.9383048894857</v>
       </c>
       <c r="F805" t="n">
-        <v>299.560606654259</v>
+        <v>300.12617598608</v>
       </c>
       <c r="G805" t="n">
-        <v>776.876006293954</v>
+        <v>793.448391250599</v>
       </c>
       <c r="H805" t="s">
         <v>63</v>
@@ -23353,22 +23353,22 @@
         <v>9</v>
       </c>
       <c r="B806" t="n">
-        <v>145.567181930982</v>
+        <v>140.564120912553</v>
       </c>
       <c r="C806" t="n">
-        <v>746.981115720738</v>
+        <v>747.344607610406</v>
       </c>
       <c r="D806" t="n">
-        <v>2264.34997784872</v>
+        <v>2267.81553569617</v>
       </c>
       <c r="E806" t="n">
-        <v>2036.39679339216</v>
+        <v>2038.284861401</v>
       </c>
       <c r="F806" t="n">
-        <v>5101.84899521554</v>
+        <v>5099.05837683478</v>
       </c>
       <c r="G806" t="n">
-        <v>12065.4325611809</v>
+        <v>11907.6632804279</v>
       </c>
       <c r="H806" t="s">
         <v>63</v>
@@ -23382,22 +23382,22 @@
         <v>11</v>
       </c>
       <c r="B807" t="n">
-        <v>-2091.17279515543</v>
+        <v>162.061896664622</v>
       </c>
       <c r="C807" t="n">
-        <v>356.409436461705</v>
+        <v>532.630580511599</v>
       </c>
       <c r="D807" t="n">
-        <v>1969.09782762509</v>
+        <v>2019.60235030575</v>
       </c>
       <c r="E807" t="n">
-        <v>1791.29723200946</v>
+        <v>1836.96655495367</v>
       </c>
       <c r="F807" t="n">
-        <v>4535.72227512096</v>
+        <v>4581.02571114573</v>
       </c>
       <c r="G807" t="n">
-        <v>13319.6392831527</v>
+        <v>13589.0678643364</v>
       </c>
       <c r="H807" t="s">
         <v>63</v>
@@ -23411,22 +23411,22 @@
         <v>11</v>
       </c>
       <c r="B808" t="n">
-        <v>-4797.26912745764</v>
+        <v>422.370518564454</v>
       </c>
       <c r="C808" t="n">
-        <v>1182.31082395295</v>
+        <v>1644.04760085223</v>
       </c>
       <c r="D808" t="n">
-        <v>6340.66305474498</v>
+        <v>6472.34686933932</v>
       </c>
       <c r="E808" t="n">
-        <v>5780.16246318972</v>
+        <v>5875.98468366472</v>
       </c>
       <c r="F808" t="n">
-        <v>14669.6002474232</v>
+        <v>14655.475037716</v>
       </c>
       <c r="G808" t="n">
-        <v>49097.7534796643</v>
+        <v>42705.0839046903</v>
       </c>
       <c r="H808" t="s">
         <v>63</v>
@@ -23440,22 +23440,22 @@
         <v>11</v>
       </c>
       <c r="B809" t="n">
-        <v>-179.555559111031</v>
+        <v>10.0089320030032</v>
       </c>
       <c r="C809" t="n">
-        <v>32.7083506232601</v>
+        <v>47.257088795526</v>
       </c>
       <c r="D809" t="n">
-        <v>173.801869308297</v>
+        <v>177.89245534407</v>
       </c>
       <c r="E809" t="n">
-        <v>159.19929235413</v>
+        <v>161.736743263031</v>
       </c>
       <c r="F809" t="n">
-        <v>401.450071385691</v>
+        <v>404.947573604742</v>
       </c>
       <c r="G809" t="n">
-        <v>944.324675511874</v>
+        <v>991.094503207998</v>
       </c>
       <c r="H809" t="s">
         <v>63</v>
@@ -23469,22 +23469,22 @@
         <v>11</v>
       </c>
       <c r="B810" t="n">
-        <v>1063947.68214072</v>
+        <v>1248309.50152721</v>
       </c>
       <c r="C810" t="n">
-        <v>3789576.94028133</v>
+        <v>3803868.66572451</v>
       </c>
       <c r="D810" t="n">
-        <v>9360768.32480256</v>
+        <v>9353463.0278014</v>
       </c>
       <c r="E810" t="n">
-        <v>8719811.56100687</v>
+        <v>8720892.51595734</v>
       </c>
       <c r="F810" t="n">
-        <v>18695043.7170171</v>
+        <v>18563470.5275386</v>
       </c>
       <c r="G810" t="n">
-        <v>48907618.9264207</v>
+        <v>50930704.1985666</v>
       </c>
       <c r="H810" t="s">
         <v>63</v>
@@ -23498,22 +23498,22 @@
         <v>11</v>
       </c>
       <c r="B811" t="n">
-        <v>110739.632047288</v>
+        <v>113087.210561188</v>
       </c>
       <c r="C811" t="n">
-        <v>373619.391337453</v>
+        <v>368715.533794232</v>
       </c>
       <c r="D811" t="n">
-        <v>919600.710913874</v>
+        <v>919996.674508514</v>
       </c>
       <c r="E811" t="n">
-        <v>857734.212600365</v>
+        <v>858838.04222295</v>
       </c>
       <c r="F811" t="n">
-        <v>1833928.42781131</v>
+        <v>1819964.30335944</v>
       </c>
       <c r="G811" t="n">
-        <v>6414553.12543456</v>
+        <v>5314428.47173234</v>
       </c>
       <c r="H811" t="s">
         <v>63</v>
@@ -23527,22 +23527,22 @@
         <v>11</v>
       </c>
       <c r="B812" t="n">
-        <v>-184.604020861262</v>
+        <v>17.9769777098707</v>
       </c>
       <c r="C812" t="n">
-        <v>47.4043564253344</v>
+        <v>71.4094285313273</v>
       </c>
       <c r="D812" t="n">
-        <v>262.608089498387</v>
+        <v>268.447404468552</v>
       </c>
       <c r="E812" t="n">
-        <v>240.781550194633</v>
+        <v>242.293478077511</v>
       </c>
       <c r="F812" t="n">
-        <v>604.226220897844</v>
+        <v>611.892812929915</v>
       </c>
       <c r="G812" t="n">
-        <v>1658.22996623076</v>
+        <v>2160.27755162955</v>
       </c>
       <c r="H812" t="s">
         <v>63</v>
@@ -23556,22 +23556,22 @@
         <v>11</v>
       </c>
       <c r="B813" t="n">
-        <v>-4598.08404347348</v>
+        <v>290.764885679474</v>
       </c>
       <c r="C813" t="n">
-        <v>895.470464672422</v>
+        <v>1307.87262301784</v>
       </c>
       <c r="D813" t="n">
-        <v>4991.82787270588</v>
+        <v>5086.64036982847</v>
       </c>
       <c r="E813" t="n">
-        <v>4563.93781049514</v>
+        <v>4631.87145342944</v>
       </c>
       <c r="F813" t="n">
-        <v>11505.3486245684</v>
+        <v>11476.7785687041</v>
       </c>
       <c r="G813" t="n">
-        <v>39150.0705919731</v>
+        <v>29243.3212524537</v>
       </c>
       <c r="H813" t="s">
         <v>63</v>
@@ -23591,16 +23591,16 @@
         <v>0</v>
       </c>
       <c r="D814" t="n">
-        <v>170.605725492085</v>
+        <v>172.193109046126</v>
       </c>
       <c r="E814" t="n">
-        <v>5.77789876705152</v>
+        <v>15.364130587862</v>
       </c>
       <c r="F814" t="n">
-        <v>705.050039282446</v>
+        <v>698.152656209262</v>
       </c>
       <c r="G814" t="n">
-        <v>2401.60240962211</v>
+        <v>2370.46114733446</v>
       </c>
       <c r="H814" t="s">
         <v>63</v>
@@ -23620,16 +23620,16 @@
         <v>0</v>
       </c>
       <c r="D815" t="n">
-        <v>3027.4363213575</v>
+        <v>3032.20674991424</v>
       </c>
       <c r="E815" t="n">
-        <v>270.609647462151</v>
+        <v>287.67331113902</v>
       </c>
       <c r="F815" t="n">
-        <v>11793.6059087491</v>
+        <v>11827.9501581114</v>
       </c>
       <c r="G815" t="n">
-        <v>26245.9258388467</v>
+        <v>26159.076572511</v>
       </c>
       <c r="H815" t="s">
         <v>63</v>
@@ -23649,16 +23649,16 @@
         <v>0</v>
       </c>
       <c r="D816" t="n">
-        <v>128.264499693683</v>
+        <v>128.392466208086</v>
       </c>
       <c r="E816" t="n">
-        <v>4.29799382488183</v>
+        <v>4.52323059896495</v>
       </c>
       <c r="F816" t="n">
-        <v>668.727503865474</v>
+        <v>670.281828325584</v>
       </c>
       <c r="G816" t="n">
-        <v>1692.93630173862</v>
+        <v>1672.54265979583</v>
       </c>
       <c r="H816" t="s">
         <v>63</v>
@@ -23672,22 +23672,22 @@
         <v>12</v>
       </c>
       <c r="B817" t="n">
-        <v>626739.28936573</v>
+        <v>583222.175479248</v>
       </c>
       <c r="C817" t="n">
-        <v>1310904.80608525</v>
+        <v>1313582.82991224</v>
       </c>
       <c r="D817" t="n">
-        <v>4981673.24945857</v>
+        <v>4982092.59937302</v>
       </c>
       <c r="E817" t="n">
-        <v>4240182.32942498</v>
+        <v>4238945.17547953</v>
       </c>
       <c r="F817" t="n">
-        <v>12054348.5237933</v>
+        <v>12059685.9780261</v>
       </c>
       <c r="G817" t="n">
-        <v>21446690.5463678</v>
+        <v>21465351.0252056</v>
       </c>
       <c r="H817" t="s">
         <v>63</v>
@@ -23701,22 +23701,22 @@
         <v>12</v>
       </c>
       <c r="B818" t="n">
-        <v>59046.5172252069</v>
+        <v>59200.1215110717</v>
       </c>
       <c r="C818" t="n">
-        <v>161342.834065999</v>
+        <v>161541.671701687</v>
       </c>
       <c r="D818" t="n">
-        <v>635779.08430118</v>
+        <v>635758.410362923</v>
       </c>
       <c r="E818" t="n">
-        <v>537052.585938988</v>
+        <v>536603.270351703</v>
       </c>
       <c r="F818" t="n">
-        <v>1594917.36950928</v>
+        <v>1593252.51506092</v>
       </c>
       <c r="G818" t="n">
-        <v>3236340.12822638</v>
+        <v>3253660.32053652</v>
       </c>
       <c r="H818" t="s">
         <v>63</v>
@@ -23736,16 +23736,16 @@
         <v>0</v>
       </c>
       <c r="D819" t="n">
-        <v>111.243913062347</v>
+        <v>111.426306968192</v>
       </c>
       <c r="E819" t="n">
-        <v>9.73117424572067</v>
+        <v>10.048155323746</v>
       </c>
       <c r="F819" t="n">
-        <v>512.700090391563</v>
+        <v>512.526236869795</v>
       </c>
       <c r="G819" t="n">
-        <v>1372.07853555779</v>
+        <v>1358.21838773224</v>
       </c>
       <c r="H819" t="s">
         <v>63</v>
@@ -23765,16 +23765,16 @@
         <v>0</v>
       </c>
       <c r="D820" t="n">
-        <v>2264.17307288749</v>
+        <v>2267.93330351968</v>
       </c>
       <c r="E820" t="n">
-        <v>220.904670484329</v>
+        <v>250.083109860136</v>
       </c>
       <c r="F820" t="n">
-        <v>9052.67546628369</v>
+        <v>9062.90736483769</v>
       </c>
       <c r="G820" t="n">
-        <v>25914.0924415782</v>
+        <v>26203.088434663</v>
       </c>
       <c r="H820" t="s">
         <v>63</v>
@@ -23788,22 +23788,22 @@
         <v>13</v>
       </c>
       <c r="B821" t="n">
-        <v>-5662.83605835264</v>
+        <v>440.632540120459</v>
       </c>
       <c r="C821" t="n">
-        <v>1397.08528692396</v>
+        <v>2105.30835707381</v>
       </c>
       <c r="D821" t="n">
-        <v>7649.51348061748</v>
+        <v>7845.65841149064</v>
       </c>
       <c r="E821" t="n">
-        <v>6972.11824904245</v>
+        <v>7122.397820763</v>
       </c>
       <c r="F821" t="n">
-        <v>17702.5178295184</v>
+        <v>17916.9434101296</v>
       </c>
       <c r="G821" t="n">
-        <v>60231.6463744788</v>
+        <v>73860.6432837062</v>
       </c>
       <c r="H821" t="s">
         <v>63</v>
@@ -23817,22 +23817,22 @@
         <v>13</v>
       </c>
       <c r="B822" t="n">
-        <v>-16537.2108435458</v>
+        <v>1649.3294420465</v>
       </c>
       <c r="C822" t="n">
-        <v>4696.69068100701</v>
+        <v>6438.03315924159</v>
       </c>
       <c r="D822" t="n">
-        <v>24613.9277118437</v>
+        <v>25129.0668771463</v>
       </c>
       <c r="E822" t="n">
-        <v>22491.723530224</v>
+        <v>22796.5758174342</v>
       </c>
       <c r="F822" t="n">
-        <v>57000.0324054864</v>
+        <v>57513.6690694239</v>
       </c>
       <c r="G822" t="n">
-        <v>138036.606530839</v>
+        <v>151804.692617382</v>
       </c>
       <c r="H822" t="s">
         <v>63</v>
@@ -23846,22 +23846,22 @@
         <v>13</v>
       </c>
       <c r="B823" t="n">
-        <v>-698.265483275495</v>
+        <v>47.5846506731918</v>
       </c>
       <c r="C823" t="n">
-        <v>127.792381458603</v>
+        <v>182.525744184988</v>
       </c>
       <c r="D823" t="n">
-        <v>675.676156551175</v>
+        <v>691.16459793671</v>
       </c>
       <c r="E823" t="n">
-        <v>616.718415466065</v>
+        <v>628.066090045932</v>
       </c>
       <c r="F823" t="n">
-        <v>1562.93894011664</v>
+        <v>1580.19440983052</v>
       </c>
       <c r="G823" t="n">
-        <v>3222.2202147025</v>
+        <v>4683.54661202934</v>
       </c>
       <c r="H823" t="s">
         <v>63</v>
@@ -23878,19 +23878,19 @@
         <v>2658716.54890408</v>
       </c>
       <c r="C824" t="n">
-        <v>14622938.1915553</v>
+        <v>14764654.7011443</v>
       </c>
       <c r="D824" t="n">
-        <v>36350930.5393043</v>
+        <v>36360977.7411247</v>
       </c>
       <c r="E824" t="n">
-        <v>33889814.675319</v>
+        <v>33822968.8360112</v>
       </c>
       <c r="F824" t="n">
-        <v>72745475.0121515</v>
+        <v>72646757.2885712</v>
       </c>
       <c r="G824" t="n">
-        <v>266174191.775072</v>
+        <v>275401985.218632</v>
       </c>
       <c r="H824" t="s">
         <v>63</v>
@@ -23904,22 +23904,22 @@
         <v>13</v>
       </c>
       <c r="B825" t="n">
-        <v>428088.042721993</v>
+        <v>264778.133869981</v>
       </c>
       <c r="C825" t="n">
-        <v>1442177.06432725</v>
+        <v>1439236.94899778</v>
       </c>
       <c r="D825" t="n">
-        <v>3572408.4891608</v>
+        <v>3572931.49042195</v>
       </c>
       <c r="E825" t="n">
-        <v>3326488.57847592</v>
+        <v>3318482.40897836</v>
       </c>
       <c r="F825" t="n">
-        <v>7140045.74702115</v>
+        <v>7173385.59891444</v>
       </c>
       <c r="G825" t="n">
-        <v>23665392.243647</v>
+        <v>26247861.3735239</v>
       </c>
       <c r="H825" t="s">
         <v>63</v>
@@ -23933,22 +23933,22 @@
         <v>13</v>
       </c>
       <c r="B826" t="n">
-        <v>-963.327292953349</v>
+        <v>56.092924561741</v>
       </c>
       <c r="C826" t="n">
-        <v>186.932599980948</v>
+        <v>275.103684783592</v>
       </c>
       <c r="D826" t="n">
-        <v>1020.45035700647</v>
+        <v>1043.26382831758</v>
       </c>
       <c r="E826" t="n">
-        <v>933.388433926701</v>
+        <v>945.939398217998</v>
       </c>
       <c r="F826" t="n">
-        <v>2356.9202591952</v>
+        <v>2381.69714202018</v>
       </c>
       <c r="G826" t="n">
-        <v>5836.91927627833</v>
+        <v>12138.3035380957</v>
       </c>
       <c r="H826" t="s">
         <v>63</v>
@@ -23962,22 +23962,22 @@
         <v>13</v>
       </c>
       <c r="B827" t="n">
-        <v>-15300.3613116248</v>
+        <v>1328.57292051277</v>
       </c>
       <c r="C827" t="n">
-        <v>3475.04875815839</v>
+        <v>5085.57926792331</v>
       </c>
       <c r="D827" t="n">
-        <v>19405.8131121259</v>
+        <v>19780.7716520347</v>
       </c>
       <c r="E827" t="n">
-        <v>17749.4402000128</v>
+        <v>18007.081222736</v>
       </c>
       <c r="F827" t="n">
-        <v>44824.4177343272</v>
+        <v>44776.8010778915</v>
       </c>
       <c r="G827" t="n">
-        <v>212186.187225982</v>
+        <v>150622.808479847</v>
       </c>
       <c r="H827" t="s">
         <v>63</v>
@@ -23991,22 +23991,22 @@
         <v>14</v>
       </c>
       <c r="B828" t="n">
-        <v>-5825.49192192436</v>
+        <v>0</v>
       </c>
       <c r="C828" t="n">
         <v>0</v>
       </c>
       <c r="D828" t="n">
-        <v>4383.66850095334</v>
+        <v>4496.69936051731</v>
       </c>
       <c r="E828" t="n">
-        <v>4086.52474742194</v>
+        <v>4184.1724431526</v>
       </c>
       <c r="F828" t="n">
-        <v>10924.8881458366</v>
+        <v>10981.1739628292</v>
       </c>
       <c r="G828" t="n">
-        <v>31093.9279450092</v>
+        <v>43489.4614748245</v>
       </c>
       <c r="H828" t="s">
         <v>63</v>
@@ -24020,22 +24020,22 @@
         <v>14</v>
       </c>
       <c r="B829" t="n">
-        <v>-14872.9165258251</v>
+        <v>0</v>
       </c>
       <c r="C829" t="n">
         <v>0</v>
       </c>
       <c r="D829" t="n">
-        <v>14112.3340139414</v>
+        <v>14394.608688485</v>
       </c>
       <c r="E829" t="n">
-        <v>13204.8980483069</v>
+        <v>13407.0812684987</v>
       </c>
       <c r="F829" t="n">
-        <v>35079.1112169085</v>
+        <v>35148.9931058008</v>
       </c>
       <c r="G829" t="n">
-        <v>93232.2892902581</v>
+        <v>103928.768926739</v>
       </c>
       <c r="H829" t="s">
         <v>63</v>
@@ -24049,22 +24049,22 @@
         <v>14</v>
       </c>
       <c r="B830" t="n">
-        <v>-456.148796924101</v>
+        <v>0</v>
       </c>
       <c r="C830" t="n">
         <v>0</v>
       </c>
       <c r="D830" t="n">
-        <v>387.059569892295</v>
+        <v>395.86771179275</v>
       </c>
       <c r="E830" t="n">
-        <v>363.401078251703</v>
+        <v>369.082095831608</v>
       </c>
       <c r="F830" t="n">
-        <v>957.720545695706</v>
+        <v>966.885698459316</v>
       </c>
       <c r="G830" t="n">
-        <v>2755.6661744566</v>
+        <v>2721.58130134835</v>
       </c>
       <c r="H830" t="s">
         <v>63</v>
@@ -24078,22 +24078,22 @@
         <v>14</v>
       </c>
       <c r="B831" t="n">
-        <v>607093.731703165</v>
+        <v>945256.83763481</v>
       </c>
       <c r="C831" t="n">
-        <v>5954725.97934381</v>
+        <v>5984849.4387646</v>
       </c>
       <c r="D831" t="n">
-        <v>21554027.940884</v>
+        <v>21546770.3166337</v>
       </c>
       <c r="E831" t="n">
-        <v>20278517.1838171</v>
+        <v>20294301.7133631</v>
       </c>
       <c r="F831" t="n">
-        <v>44618493.2607854</v>
+        <v>44472406.3183343</v>
       </c>
       <c r="G831" t="n">
-        <v>148449812.783674</v>
+        <v>153596308.016617</v>
       </c>
       <c r="H831" t="s">
         <v>63</v>
@@ -24107,22 +24107,22 @@
         <v>14</v>
       </c>
       <c r="B832" t="n">
-        <v>110586.073062646</v>
+        <v>125919.910481938</v>
       </c>
       <c r="C832" t="n">
-        <v>588037.983752585</v>
+        <v>582145.702761681</v>
       </c>
       <c r="D832" t="n">
-        <v>2112926.50639848</v>
+        <v>2114367.52245318</v>
       </c>
       <c r="E832" t="n">
-        <v>1989058.7451383</v>
+        <v>1989763.36592059</v>
       </c>
       <c r="F832" t="n">
-        <v>4358063.93237802</v>
+        <v>4394474.38037808</v>
       </c>
       <c r="G832" t="n">
-        <v>14583211.0441511</v>
+        <v>13929897.7300737</v>
       </c>
       <c r="H832" t="s">
         <v>63</v>
@@ -24136,22 +24136,22 @@
         <v>14</v>
       </c>
       <c r="B833" t="n">
-        <v>-504.073967878195</v>
+        <v>0</v>
       </c>
       <c r="C833" t="n">
         <v>0</v>
       </c>
       <c r="D833" t="n">
-        <v>584.489807180738</v>
+        <v>597.78749315187</v>
       </c>
       <c r="E833" t="n">
-        <v>548.864096705228</v>
+        <v>555.757103558313</v>
       </c>
       <c r="F833" t="n">
-        <v>1447.05619453645</v>
+        <v>1465.42797345898</v>
       </c>
       <c r="G833" t="n">
-        <v>4026.0040561683</v>
+        <v>6631.09095935369</v>
       </c>
       <c r="H833" t="s">
         <v>63</v>
@@ -24165,22 +24165,22 @@
         <v>14</v>
       </c>
       <c r="B834" t="n">
-        <v>-13535.0055265094</v>
+        <v>0</v>
       </c>
       <c r="C834" t="n">
         <v>0</v>
       </c>
       <c r="D834" t="n">
-        <v>11104.2223164412</v>
+        <v>11324.8218108214</v>
       </c>
       <c r="E834" t="n">
-        <v>10398.0545743377</v>
+        <v>10582.6990917082</v>
       </c>
       <c r="F834" t="n">
-        <v>27473.7840910107</v>
+        <v>27600.4424204952</v>
       </c>
       <c r="G834" t="n">
-        <v>115014.639163728</v>
+        <v>84852.2729610977</v>
       </c>
       <c r="H834" t="s">
         <v>63</v>
@@ -27239,22 +27239,22 @@
         <v>30</v>
       </c>
       <c r="B940" t="n">
-        <v>-548.253490930637</v>
+        <v>130.184932134602</v>
       </c>
       <c r="C940" t="n">
-        <v>407.414754891547</v>
+        <v>509.556664335829</v>
       </c>
       <c r="D940" t="n">
-        <v>1531.06349456451</v>
+        <v>1560.43988581821</v>
       </c>
       <c r="E940" t="n">
-        <v>1429.49301986802</v>
+        <v>1461.61269493028</v>
       </c>
       <c r="F940" t="n">
-        <v>3222.93401497652</v>
+        <v>3190.14873213042</v>
       </c>
       <c r="G940" t="n">
-        <v>6895.28289358344</v>
+        <v>8914.20577493638</v>
       </c>
       <c r="H940" t="s">
         <v>63</v>
@@ -27268,22 +27268,22 @@
         <v>30</v>
       </c>
       <c r="B941" t="n">
-        <v>686.792410227877</v>
+        <v>1325.70814331176</v>
       </c>
       <c r="C941" t="n">
-        <v>3856.46041104401</v>
+        <v>3932.67320390444</v>
       </c>
       <c r="D941" t="n">
-        <v>10146.935082467</v>
+        <v>10225.8424694269</v>
       </c>
       <c r="E941" t="n">
-        <v>9570.19768918623</v>
+        <v>9655.02296986925</v>
       </c>
       <c r="F941" t="n">
-        <v>19745.3694422398</v>
+        <v>19751.3733281891</v>
       </c>
       <c r="G941" t="n">
-        <v>39035.2685783724</v>
+        <v>36477.3527551442</v>
       </c>
       <c r="H941" t="s">
         <v>63</v>
@@ -27297,22 +27297,22 @@
         <v>30</v>
       </c>
       <c r="B942" t="n">
-        <v>-62.3867560840846</v>
+        <v>22.1438555187399</v>
       </c>
       <c r="C942" t="n">
-        <v>92.6930367304492</v>
+        <v>94.717783238746</v>
       </c>
       <c r="D942" t="n">
-        <v>372.984047721848</v>
+        <v>375.498317466543</v>
       </c>
       <c r="E942" t="n">
-        <v>314.314824564038</v>
+        <v>317.849073388656</v>
       </c>
       <c r="F942" t="n">
-        <v>939.75039228565</v>
+        <v>939.967169876405</v>
       </c>
       <c r="G942" t="n">
-        <v>2454.86239786809</v>
+        <v>2567.48697064485</v>
       </c>
       <c r="H942" t="s">
         <v>63</v>
@@ -27326,22 +27326,22 @@
         <v>30</v>
       </c>
       <c r="B943" t="n">
-        <v>2299982.07124903</v>
+        <v>2040949.0513207</v>
       </c>
       <c r="C943" t="n">
-        <v>6496650.69206426</v>
+        <v>6469391.52452833</v>
       </c>
       <c r="D943" t="n">
-        <v>13196962.7482792</v>
+        <v>13199763.8640636</v>
       </c>
       <c r="E943" t="n">
-        <v>12732707.4903301</v>
+        <v>12744839.5776778</v>
       </c>
       <c r="F943" t="n">
-        <v>22562887.9067624</v>
+        <v>22569192.9860961</v>
       </c>
       <c r="G943" t="n">
-        <v>45108577.582838</v>
+        <v>44893144.346713</v>
       </c>
       <c r="H943" t="s">
         <v>63</v>
@@ -27355,22 +27355,22 @@
         <v>30</v>
       </c>
       <c r="B944" t="n">
-        <v>194967.411422337</v>
+        <v>224530.686895948</v>
       </c>
       <c r="C944" t="n">
-        <v>731569.302930796</v>
+        <v>731678.527435374</v>
       </c>
       <c r="D944" t="n">
-        <v>1518492.91260048</v>
+        <v>1518328.36471017</v>
       </c>
       <c r="E944" t="n">
-        <v>1458377.07114746</v>
+        <v>1458606.43411851</v>
       </c>
       <c r="F944" t="n">
-        <v>2660913.523652</v>
+        <v>2650971.31362344</v>
       </c>
       <c r="G944" t="n">
-        <v>5841108.54654083</v>
+        <v>5716909.49807466</v>
       </c>
       <c r="H944" t="s">
         <v>63</v>
@@ -27384,22 +27384,22 @@
         <v>30</v>
       </c>
       <c r="B945" t="n">
-        <v>11.0383538733503</v>
+        <v>32.5367386629469</v>
       </c>
       <c r="C945" t="n">
-        <v>131.705520595637</v>
+        <v>141.679005343093</v>
       </c>
       <c r="D945" t="n">
-        <v>391.238484136518</v>
+        <v>394.705904431632</v>
       </c>
       <c r="E945" t="n">
-        <v>355.121764790532</v>
+        <v>357.212013478373</v>
       </c>
       <c r="F945" t="n">
-        <v>864.538570343548</v>
+        <v>870.684164561678</v>
       </c>
       <c r="G945" t="n">
-        <v>2055.96622521836</v>
+        <v>1856.41234684188</v>
       </c>
       <c r="H945" t="s">
         <v>63</v>
@@ -27413,22 +27413,22 @@
         <v>30</v>
       </c>
       <c r="B946" t="n">
-        <v>375.698839963175</v>
+        <v>776.80025104761</v>
       </c>
       <c r="C946" t="n">
-        <v>2876.24087404221</v>
+        <v>2990.23723274817</v>
       </c>
       <c r="D946" t="n">
-        <v>7731.46906365175</v>
+        <v>7801.41398484865</v>
       </c>
       <c r="E946" t="n">
-        <v>7254.64948978366</v>
+        <v>7305.43718065944</v>
       </c>
       <c r="F946" t="n">
-        <v>15369.5324423279</v>
+        <v>15365.1394082097</v>
       </c>
       <c r="G946" t="n">
-        <v>33101.7646166337</v>
+        <v>31802.8336670984</v>
       </c>
       <c r="H946" t="s">
         <v>63</v>
@@ -28051,22 +28051,22 @@
         <v>34</v>
       </c>
       <c r="B968" t="n">
-        <v>0.393574272854242</v>
+        <v>0.393023705598744</v>
       </c>
       <c r="C968" t="n">
-        <v>1.44694062990859</v>
+        <v>1.44772403355457</v>
       </c>
       <c r="D968" t="n">
-        <v>3.35139832805392</v>
+        <v>3.35158843353106</v>
       </c>
       <c r="E968" t="n">
-        <v>3.10492648614016</v>
+        <v>3.10552209150144</v>
       </c>
       <c r="F968" t="n">
-        <v>6.82706811299667</v>
+        <v>6.8242583001505</v>
       </c>
       <c r="G968" t="n">
-        <v>17.1286377854864</v>
+        <v>17.123628656202</v>
       </c>
       <c r="H968" t="s">
         <v>63</v>
@@ -28080,22 +28080,22 @@
         <v>34</v>
       </c>
       <c r="B969" t="n">
-        <v>9.45090160220699</v>
+        <v>9.45421468735739</v>
       </c>
       <c r="C969" t="n">
-        <v>24.5719340319682</v>
+        <v>24.570003568662</v>
       </c>
       <c r="D969" t="n">
-        <v>59.2350882913673</v>
+        <v>59.2355806549131</v>
       </c>
       <c r="E969" t="n">
-        <v>56.1459925178181</v>
+        <v>56.1424018069193</v>
       </c>
       <c r="F969" t="n">
-        <v>111.635220145549</v>
+        <v>111.663222691321</v>
       </c>
       <c r="G969" t="n">
-        <v>196.617261594616</v>
+        <v>196.617180462593</v>
       </c>
       <c r="H969" t="s">
         <v>63</v>
@@ -28109,22 +28109,22 @@
         <v>34</v>
       </c>
       <c r="B970" t="n">
-        <v>0.32682096649504</v>
+        <v>0.326812188798101</v>
       </c>
       <c r="C970" t="n">
-        <v>0.984055869978198</v>
+        <v>0.984090306709336</v>
       </c>
       <c r="D970" t="n">
-        <v>2.97555960314147</v>
+        <v>2.97557502341903</v>
       </c>
       <c r="E970" t="n">
-        <v>2.67368280125606</v>
+        <v>2.67393094176997</v>
       </c>
       <c r="F970" t="n">
-        <v>6.55057985222608</v>
+        <v>6.55065577469672</v>
       </c>
       <c r="G970" t="n">
-        <v>12.5720813247477</v>
+        <v>12.5710957500521</v>
       </c>
       <c r="H970" t="s">
         <v>63</v>
@@ -28138,22 +28138,22 @@
         <v>34</v>
       </c>
       <c r="B971" t="n">
-        <v>17964.8695341973</v>
+        <v>17969.8783325066</v>
       </c>
       <c r="C971" t="n">
-        <v>41979.5043820575</v>
+        <v>41978.6738959702</v>
       </c>
       <c r="D971" t="n">
-        <v>83036.3886420641</v>
+        <v>83036.4047151902</v>
       </c>
       <c r="E971" t="n">
-        <v>80858.8657290159</v>
+        <v>80854.0758563119</v>
       </c>
       <c r="F971" t="n">
-        <v>136952.121772746</v>
+        <v>136959.39713613</v>
       </c>
       <c r="G971" t="n">
-        <v>223714.868544622</v>
+        <v>223747.020998766</v>
       </c>
       <c r="H971" t="s">
         <v>63</v>
@@ -28167,22 +28167,22 @@
         <v>34</v>
       </c>
       <c r="B972" t="n">
-        <v>1837.66923050044</v>
+        <v>1837.86956092149</v>
       </c>
       <c r="C972" t="n">
-        <v>5130.81600926407</v>
+        <v>5130.1668418846</v>
       </c>
       <c r="D972" t="n">
-        <v>10620.5646095049</v>
+        <v>10620.5638339025</v>
       </c>
       <c r="E972" t="n">
-        <v>10271.8336628758</v>
+        <v>10271.6058710407</v>
       </c>
       <c r="F972" t="n">
-        <v>18227.4421683846</v>
+        <v>18227.8652171188</v>
       </c>
       <c r="G972" t="n">
-        <v>34825.5670170915</v>
+        <v>34827.2738846637</v>
       </c>
       <c r="H972" t="s">
         <v>63</v>
@@ -28196,22 +28196,22 @@
         <v>34</v>
       </c>
       <c r="B973" t="n">
-        <v>0.297711093873368</v>
+        <v>0.297880737282392</v>
       </c>
       <c r="C973" t="n">
-        <v>0.91340225470151</v>
+        <v>0.91351254877986</v>
       </c>
       <c r="D973" t="n">
-        <v>2.23383211892329</v>
+        <v>2.23385217713942</v>
       </c>
       <c r="E973" t="n">
-        <v>2.03678140725897</v>
+        <v>2.03697762344193</v>
       </c>
       <c r="F973" t="n">
-        <v>4.75081554284617</v>
+        <v>4.75173789000309</v>
       </c>
       <c r="G973" t="n">
-        <v>10.7618347343526</v>
+        <v>10.7611077117088</v>
       </c>
       <c r="H973" t="s">
         <v>63</v>
@@ -28225,22 +28225,22 @@
         <v>34</v>
       </c>
       <c r="B974" t="n">
-        <v>7.98697805079946</v>
+        <v>7.98662754267582</v>
       </c>
       <c r="C974" t="n">
-        <v>18.5938363157877</v>
+        <v>18.5923152267398</v>
       </c>
       <c r="D974" t="n">
-        <v>42.7812779290645</v>
+        <v>42.7816848227403</v>
       </c>
       <c r="E974" t="n">
-        <v>40.1963503743413</v>
+        <v>40.198969063655</v>
       </c>
       <c r="F974" t="n">
-        <v>81.2463767977379</v>
+        <v>81.2523073395966</v>
       </c>
       <c r="G974" t="n">
-        <v>144.58747439744</v>
+        <v>144.532701481412</v>
       </c>
       <c r="H974" t="s">
         <v>63</v>
